--- a/Modul-3/Modul3Andat.xlsx
+++ b/Modul-3/Modul3Andat.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23231"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Github\Metode-Analisis-Data-Oseanografi\Modul-3\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\coolyah\Skool pt.5\OS3102 Metode Analisis Data Oseanografi\praktikum\Mod 3 - FTT, Lag, et al\Paket Modul 3 Andat 2020\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1BF94C5F-3D3F-4728-93DF-59E2329B9E2E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F6C64E3-A2D5-465B-A148-40C8C600742D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ScriptPMELLNOAA" sheetId="1" r:id="rId1"/>
@@ -132,7 +132,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="28">
+  <fonts count="28" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -327,6 +327,7 @@
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial Unicode MS"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="34">
@@ -1105,16 +1106,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:M122"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="I14" sqref="I14"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="Q6" sqref="Q6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="14" max="14" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="11.26953125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1155,3014 +1156,3041 @@
         <v>18</v>
       </c>
     </row>
-    <row r="2" spans="1:13">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A2">
-        <v>20100103</v>
+        <v>20091230</v>
       </c>
       <c r="B2">
-        <v>29.666</v>
+        <v>30.31</v>
       </c>
       <c r="C2">
-        <v>29.585999999999999</v>
+        <v>30.31</v>
       </c>
       <c r="D2">
-        <v>29.838000000000001</v>
+        <v>30.366</v>
       </c>
       <c r="E2">
-        <v>29.797999999999998</v>
+        <v>30.16</v>
       </c>
       <c r="F2">
-        <v>28.806000000000001</v>
+        <v>29.084</v>
       </c>
       <c r="G2">
-        <v>25.297999999999998</v>
+        <v>28.135999999999999</v>
       </c>
       <c r="H2">
-        <v>20.213999999999999</v>
+        <v>-9.9990000000000006</v>
       </c>
       <c r="I2">
-        <v>14.9</v>
+        <v>14.683999999999999</v>
       </c>
       <c r="J2">
-        <v>12.061999999999999</v>
+        <v>-9.9990000000000006</v>
       </c>
       <c r="K2">
-        <v>11.417999999999999</v>
+        <v>10.88</v>
       </c>
       <c r="L2">
-        <v>8.3559999999999999</v>
+        <v>9.0039999999999996</v>
       </c>
       <c r="M2">
-        <v>11111111111</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13">
+        <v>11112201011</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A3">
-        <v>20100108</v>
+        <v>20100104</v>
       </c>
       <c r="B3">
-        <v>29.748000000000001</v>
+        <v>30.326000000000001</v>
       </c>
       <c r="C3">
-        <v>29.716000000000001</v>
+        <v>30.196000000000002</v>
       </c>
       <c r="D3">
-        <v>29.908000000000001</v>
+        <v>30.454000000000001</v>
       </c>
       <c r="E3">
-        <v>29.923999999999999</v>
+        <v>30.196000000000002</v>
       </c>
       <c r="F3">
-        <v>29.164000000000001</v>
+        <v>28.76</v>
       </c>
       <c r="G3">
-        <v>23.09</v>
+        <v>28.012</v>
       </c>
       <c r="H3">
-        <v>18.952000000000002</v>
+        <v>-9.9990000000000006</v>
       </c>
       <c r="I3">
-        <v>14.678000000000001</v>
+        <v>13.79</v>
       </c>
       <c r="J3">
-        <v>12.15</v>
+        <v>-9.9990000000000006</v>
       </c>
       <c r="K3">
-        <v>11.374000000000001</v>
+        <v>10.648</v>
       </c>
       <c r="L3">
-        <v>8.1859999999999999</v>
+        <v>8.6739999999999995</v>
       </c>
       <c r="M3">
-        <v>11111111111</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13">
+        <v>11112201011</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A4">
-        <v>20100113</v>
+        <v>20100109</v>
       </c>
       <c r="B4">
-        <v>29.802</v>
+        <v>30.456</v>
       </c>
       <c r="C4">
-        <v>29.81</v>
+        <v>30.242000000000001</v>
       </c>
       <c r="D4">
-        <v>30.056000000000001</v>
+        <v>30.46</v>
       </c>
       <c r="E4">
-        <v>29.795999999999999</v>
+        <v>30.271999999999998</v>
       </c>
       <c r="F4">
-        <v>28.596</v>
+        <v>28.988</v>
       </c>
       <c r="G4">
-        <v>22.576000000000001</v>
+        <v>28.167999999999999</v>
       </c>
       <c r="H4">
-        <v>19.428000000000001</v>
+        <v>-9.9990000000000006</v>
       </c>
       <c r="I4">
-        <v>15.254</v>
+        <v>14.742000000000001</v>
       </c>
       <c r="J4">
-        <v>12.06</v>
+        <v>-9.9990000000000006</v>
       </c>
       <c r="K4">
-        <v>11.118</v>
+        <v>10.64</v>
       </c>
       <c r="L4">
-        <v>8.33</v>
+        <v>8.4860000000000007</v>
       </c>
       <c r="M4">
-        <v>11111111111</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13">
+        <v>11112201011</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A5">
-        <v>20100118</v>
+        <v>20100114</v>
       </c>
       <c r="B5">
-        <v>29.884</v>
+        <v>30.382000000000001</v>
       </c>
       <c r="C5">
-        <v>29.81</v>
+        <v>30.327999999999999</v>
       </c>
       <c r="D5">
-        <v>30.001999999999999</v>
+        <v>30.448</v>
       </c>
       <c r="E5">
-        <v>29.27</v>
+        <v>30.268000000000001</v>
       </c>
       <c r="F5">
-        <v>27.87</v>
+        <v>28.771999999999998</v>
       </c>
       <c r="G5">
-        <v>23.012</v>
+        <v>27.824999999999999</v>
       </c>
       <c r="H5">
-        <v>18.536000000000001</v>
+        <v>-9.9990000000000006</v>
       </c>
       <c r="I5">
-        <v>14.778</v>
+        <v>13.316000000000001</v>
       </c>
       <c r="J5">
-        <v>12.194000000000001</v>
+        <v>-9.9990000000000006</v>
       </c>
       <c r="K5">
-        <v>11.194000000000001</v>
+        <v>10.968</v>
       </c>
       <c r="L5">
-        <v>8.3800000000000008</v>
+        <v>8.8119999999999994</v>
       </c>
       <c r="M5">
-        <v>11111111111</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13">
+        <v>11112201011</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A6">
-        <v>20100123</v>
+        <v>20100119</v>
       </c>
       <c r="B6">
-        <v>29.777999999999999</v>
+        <v>30.428000000000001</v>
       </c>
       <c r="C6">
+        <v>30.318000000000001</v>
+      </c>
+      <c r="D6">
+        <v>30.36</v>
+      </c>
+      <c r="E6">
+        <v>29.675999999999998</v>
+      </c>
+      <c r="F6">
+        <v>-9.9990000000000006</v>
+      </c>
+      <c r="G6">
+        <v>-9.9990000000000006</v>
+      </c>
+      <c r="H6">
+        <v>-9.9990000000000006</v>
+      </c>
+      <c r="I6">
+        <v>12.555999999999999</v>
+      </c>
+      <c r="J6">
+        <v>-9.9990000000000006</v>
+      </c>
+      <c r="K6">
+        <v>11.13</v>
+      </c>
+      <c r="L6">
+        <v>9.0960000000000001</v>
+      </c>
+      <c r="M6">
+        <v>11110001011</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A7">
+        <v>20100124</v>
+      </c>
+      <c r="B7">
+        <v>30.24</v>
+      </c>
+      <c r="C7">
+        <v>30.225999999999999</v>
+      </c>
+      <c r="D7">
+        <v>30.213999999999999</v>
+      </c>
+      <c r="E7">
+        <v>29.87</v>
+      </c>
+      <c r="F7">
+        <v>-9.9990000000000006</v>
+      </c>
+      <c r="G7">
+        <v>-9.9990000000000006</v>
+      </c>
+      <c r="H7">
+        <v>-9.9990000000000006</v>
+      </c>
+      <c r="I7">
+        <v>13.05</v>
+      </c>
+      <c r="J7">
+        <v>-9.9990000000000006</v>
+      </c>
+      <c r="K7">
+        <v>11.342000000000001</v>
+      </c>
+      <c r="L7">
+        <v>9.2260000000000009</v>
+      </c>
+      <c r="M7">
+        <v>11110001011</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A8">
+        <v>20100129</v>
+      </c>
+      <c r="B8">
+        <v>30.154</v>
+      </c>
+      <c r="C8">
+        <v>30.216000000000001</v>
+      </c>
+      <c r="D8">
+        <v>30.204000000000001</v>
+      </c>
+      <c r="E8">
         <v>29.808</v>
       </c>
-      <c r="D6">
-        <v>30.224</v>
-      </c>
-      <c r="E6">
-        <v>29.722000000000001</v>
-      </c>
-      <c r="F6">
-        <v>29.001999999999999</v>
-      </c>
-      <c r="G6">
-        <v>24.544</v>
-      </c>
-      <c r="H6">
-        <v>19.59</v>
-      </c>
-      <c r="I6">
-        <v>15.327999999999999</v>
-      </c>
-      <c r="J6">
-        <v>12.81</v>
-      </c>
-      <c r="K6">
-        <v>11.682</v>
-      </c>
-      <c r="L6">
-        <v>8.4019999999999992</v>
-      </c>
-      <c r="M6">
-        <v>11111111111</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13">
-      <c r="A7">
-        <v>20100128</v>
-      </c>
-      <c r="B7">
-        <v>29.745999999999999</v>
-      </c>
-      <c r="C7">
-        <v>29.718</v>
-      </c>
-      <c r="D7">
-        <v>29.744</v>
-      </c>
-      <c r="E7">
-        <v>29.838000000000001</v>
-      </c>
-      <c r="F7">
-        <v>29.69</v>
-      </c>
-      <c r="G7">
-        <v>26.952000000000002</v>
-      </c>
-      <c r="H7">
-        <v>21.916</v>
-      </c>
-      <c r="I7">
-        <v>16.25</v>
-      </c>
-      <c r="J7">
-        <v>13.452</v>
-      </c>
-      <c r="K7">
-        <v>11.962</v>
-      </c>
-      <c r="L7">
-        <v>8.7859999999999996</v>
-      </c>
-      <c r="M7">
-        <v>11111111111</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13">
-      <c r="A8">
-        <v>20100202</v>
-      </c>
-      <c r="B8">
-        <v>29.608000000000001</v>
-      </c>
-      <c r="C8">
-        <v>29.693999999999999</v>
-      </c>
-      <c r="D8">
-        <v>29.7</v>
-      </c>
-      <c r="E8">
-        <v>29.731999999999999</v>
-      </c>
       <c r="F8">
-        <v>29.827999999999999</v>
+        <v>-9.9990000000000006</v>
       </c>
       <c r="G8">
-        <v>27.562000000000001</v>
+        <v>-9.9990000000000006</v>
       </c>
       <c r="H8">
-        <v>22.35</v>
+        <v>-9.9990000000000006</v>
       </c>
       <c r="I8">
-        <v>16.616</v>
+        <v>14.49</v>
       </c>
       <c r="J8">
-        <v>13.214</v>
+        <v>-9.9990000000000006</v>
       </c>
       <c r="K8">
-        <v>12.03</v>
+        <v>11.35</v>
       </c>
       <c r="L8">
-        <v>8.89</v>
+        <v>9.3460000000000001</v>
       </c>
       <c r="M8">
-        <v>11111111111</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13">
+        <v>11110001011</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A9">
-        <v>20100207</v>
+        <v>20100203</v>
       </c>
       <c r="B9">
-        <v>29.687999999999999</v>
+        <v>29.994</v>
       </c>
       <c r="C9">
-        <v>29.675999999999998</v>
+        <v>29.998000000000001</v>
       </c>
       <c r="D9">
-        <v>29.666</v>
+        <v>30.021999999999998</v>
       </c>
       <c r="E9">
-        <v>29.713999999999999</v>
+        <v>30.033999999999999</v>
       </c>
       <c r="F9">
-        <v>29.846</v>
+        <v>29.782</v>
       </c>
       <c r="G9">
-        <v>27.026</v>
+        <v>29.497</v>
       </c>
       <c r="H9">
-        <v>20.69</v>
+        <v>28.13</v>
       </c>
       <c r="I9">
-        <v>16.39</v>
+        <v>18.36</v>
       </c>
       <c r="J9">
-        <v>13.198</v>
+        <v>12.68</v>
       </c>
       <c r="K9">
-        <v>11.852</v>
+        <v>11.555999999999999</v>
       </c>
       <c r="L9">
-        <v>8.43</v>
+        <v>9.2759999999999998</v>
       </c>
       <c r="M9">
         <v>11111111111</v>
       </c>
     </row>
-    <row r="10" spans="1:13">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A10">
-        <v>20100212</v>
+        <v>20100208</v>
       </c>
       <c r="B10">
-        <v>29.675999999999998</v>
+        <v>29.948</v>
       </c>
       <c r="C10">
-        <v>29.69</v>
+        <v>29.916</v>
       </c>
       <c r="D10">
-        <v>29.692</v>
+        <v>29.923999999999999</v>
       </c>
       <c r="E10">
-        <v>29.788</v>
+        <v>29.925999999999998</v>
       </c>
       <c r="F10">
-        <v>30.032</v>
+        <v>29.654</v>
       </c>
       <c r="G10">
-        <v>25.824000000000002</v>
+        <v>29.414000000000001</v>
       </c>
       <c r="H10">
-        <v>21.135999999999999</v>
+        <v>27.8</v>
       </c>
       <c r="I10">
-        <v>16.391999999999999</v>
+        <v>17.423999999999999</v>
       </c>
       <c r="J10">
-        <v>13.176</v>
+        <v>12.814</v>
       </c>
       <c r="K10">
-        <v>11.894</v>
+        <v>11.64</v>
       </c>
       <c r="L10">
-        <v>8.8019999999999996</v>
+        <v>8.702</v>
       </c>
       <c r="M10">
         <v>11111111111</v>
       </c>
     </row>
-    <row r="11" spans="1:13">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A11">
-        <v>20100217</v>
+        <v>20100213</v>
       </c>
       <c r="B11">
-        <v>29.835999999999999</v>
+        <v>29.678000000000001</v>
       </c>
       <c r="C11">
-        <v>29.81</v>
+        <v>29.678000000000001</v>
       </c>
       <c r="D11">
-        <v>29.788</v>
+        <v>29.686</v>
       </c>
       <c r="E11">
-        <v>29.763999999999999</v>
+        <v>29.696000000000002</v>
       </c>
       <c r="F11">
-        <v>29.494</v>
+        <v>29.648</v>
       </c>
       <c r="G11">
-        <v>24.82</v>
+        <v>29.26</v>
       </c>
       <c r="H11">
-        <v>20.547999999999998</v>
+        <v>27.898</v>
       </c>
       <c r="I11">
-        <v>15.587999999999999</v>
+        <v>17.012</v>
       </c>
       <c r="J11">
-        <v>13.234</v>
+        <v>12.15</v>
       </c>
       <c r="K11">
-        <v>11.792</v>
+        <v>11.678000000000001</v>
       </c>
       <c r="L11">
-        <v>8.9580000000000002</v>
+        <v>9.3140000000000001</v>
       </c>
       <c r="M11">
-        <v>14444444444</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13">
+        <v>11111111111</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A12">
-        <v>20100222</v>
+        <v>20100218</v>
       </c>
       <c r="B12">
-        <v>29.728000000000002</v>
+        <v>29.672000000000001</v>
       </c>
       <c r="C12">
-        <v>29.8</v>
+        <v>29.658000000000001</v>
       </c>
       <c r="D12">
-        <v>29.797999999999998</v>
+        <v>29.672000000000001</v>
       </c>
       <c r="E12">
-        <v>29.75</v>
+        <v>29.684000000000001</v>
       </c>
       <c r="F12">
-        <v>29.341999999999999</v>
+        <v>29.515999999999998</v>
       </c>
       <c r="G12">
-        <v>24.084</v>
+        <v>28.936</v>
       </c>
       <c r="H12">
-        <v>19.826000000000001</v>
+        <v>26.236000000000001</v>
       </c>
       <c r="I12">
-        <v>15.132</v>
+        <v>14.484</v>
       </c>
       <c r="J12">
-        <v>12.83</v>
+        <v>11.984</v>
       </c>
       <c r="K12">
-        <v>11.534000000000001</v>
+        <v>11.666</v>
       </c>
       <c r="L12">
-        <v>8.9920000000000009</v>
+        <v>9.2360000000000007</v>
       </c>
       <c r="M12">
-        <v>14444444444</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13">
+        <v>11111111111</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A13">
-        <v>20100227</v>
+        <v>20100223</v>
       </c>
       <c r="B13">
-        <v>29.69</v>
+        <v>29.527999999999999</v>
       </c>
       <c r="C13">
-        <v>29.672000000000001</v>
+        <v>29.481999999999999</v>
       </c>
       <c r="D13">
-        <v>29.751999999999999</v>
+        <v>29.46</v>
       </c>
       <c r="E13">
-        <v>29.315999999999999</v>
+        <v>29.442</v>
       </c>
       <c r="F13">
-        <v>27.751999999999999</v>
+        <v>29.277999999999999</v>
       </c>
       <c r="G13">
-        <v>22.786000000000001</v>
+        <v>27.92</v>
       </c>
       <c r="H13">
-        <v>19.38</v>
+        <v>22.251999999999999</v>
       </c>
       <c r="I13">
-        <v>15.917999999999999</v>
+        <v>13.384</v>
       </c>
       <c r="J13">
-        <v>12.984</v>
+        <v>12.102</v>
       </c>
       <c r="K13">
-        <v>11.894</v>
+        <v>11.804</v>
       </c>
       <c r="L13">
-        <v>8.702</v>
+        <v>8.9039999999999999</v>
       </c>
       <c r="M13">
-        <v>14444444444</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13">
+        <v>11111111111</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A14">
-        <v>20100304</v>
+        <v>20100228</v>
       </c>
       <c r="B14">
-        <v>29.745999999999999</v>
+        <v>29.756</v>
       </c>
       <c r="C14">
-        <v>29.75</v>
+        <v>29.6</v>
       </c>
       <c r="D14">
-        <v>29.724</v>
+        <v>29.428000000000001</v>
       </c>
       <c r="E14">
-        <v>29.082000000000001</v>
+        <v>29.378</v>
       </c>
       <c r="F14">
-        <v>26.882000000000001</v>
+        <v>29.033999999999999</v>
       </c>
       <c r="G14">
-        <v>22.504000000000001</v>
+        <v>27.05</v>
       </c>
       <c r="H14">
-        <v>18.968</v>
+        <v>21.46</v>
       </c>
       <c r="I14">
-        <v>14.956</v>
+        <v>13.27</v>
       </c>
       <c r="J14">
-        <v>12.67</v>
+        <v>12.134</v>
       </c>
       <c r="K14">
-        <v>11.72</v>
+        <v>11.708</v>
       </c>
       <c r="L14">
-        <v>8.8800000000000008</v>
+        <v>8.7260000000000009</v>
       </c>
       <c r="M14">
-        <v>14444444444</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13">
+        <v>11111111111</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A15">
-        <v>20100309</v>
+        <v>20100305</v>
       </c>
       <c r="B15">
-        <v>29.585999999999999</v>
+        <v>29.655999999999999</v>
       </c>
       <c r="C15">
-        <v>29.576000000000001</v>
+        <v>29.64</v>
       </c>
       <c r="D15">
-        <v>29.687999999999999</v>
+        <v>29.545999999999999</v>
       </c>
       <c r="E15">
-        <v>29.154</v>
+        <v>29.425999999999998</v>
       </c>
       <c r="F15">
-        <v>27.507999999999999</v>
+        <v>29.193999999999999</v>
       </c>
       <c r="G15">
-        <v>23.5</v>
+        <v>26.138000000000002</v>
       </c>
       <c r="H15">
-        <v>19.318000000000001</v>
+        <v>21.274000000000001</v>
       </c>
       <c r="I15">
-        <v>15.542</v>
+        <v>12.97</v>
       </c>
       <c r="J15">
-        <v>13.064</v>
+        <v>11.99</v>
       </c>
       <c r="K15">
-        <v>11.956</v>
+        <v>11.566000000000001</v>
       </c>
       <c r="L15">
-        <v>8.9420000000000002</v>
+        <v>8.9440000000000008</v>
       </c>
       <c r="M15">
-        <v>14444444441</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13">
+        <v>11111111111</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A16">
-        <v>20100314</v>
+        <v>20100310</v>
       </c>
       <c r="B16">
-        <v>29.6</v>
+        <v>29.47</v>
       </c>
       <c r="C16">
-        <v>29.591999999999999</v>
+        <v>29.521999999999998</v>
       </c>
       <c r="D16">
-        <v>29.594000000000001</v>
+        <v>29.501999999999999</v>
       </c>
       <c r="E16">
-        <v>29.074000000000002</v>
+        <v>29.334</v>
       </c>
       <c r="F16">
-        <v>27.231999999999999</v>
+        <v>28.876000000000001</v>
       </c>
       <c r="G16">
-        <v>23.292000000000002</v>
+        <v>26.398</v>
       </c>
       <c r="H16">
-        <v>19.494</v>
+        <v>19.739999999999998</v>
       </c>
       <c r="I16">
-        <v>15.571999999999999</v>
+        <v>13.244</v>
       </c>
       <c r="J16">
-        <v>13.571999999999999</v>
+        <v>11.981999999999999</v>
       </c>
       <c r="K16">
-        <v>12.196</v>
+        <v>11.513999999999999</v>
       </c>
       <c r="L16">
-        <v>8.8140000000000001</v>
+        <v>8.9079999999999995</v>
       </c>
       <c r="M16">
-        <v>14444444444</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13">
+        <v>11111111111</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A17">
-        <v>20100319</v>
+        <v>20100315</v>
       </c>
       <c r="B17">
-        <v>29.667999999999999</v>
+        <v>29.596</v>
       </c>
       <c r="C17">
-        <v>29.646000000000001</v>
+        <v>29.486000000000001</v>
       </c>
       <c r="D17">
-        <v>29.178000000000001</v>
+        <v>29.414000000000001</v>
       </c>
       <c r="E17">
-        <v>27.957999999999998</v>
+        <v>29.25</v>
       </c>
       <c r="F17">
-        <v>26.228000000000002</v>
+        <v>28.652000000000001</v>
       </c>
       <c r="G17">
-        <v>24.033999999999999</v>
+        <v>25.56</v>
       </c>
       <c r="H17">
-        <v>19.905999999999999</v>
+        <v>20.745999999999999</v>
       </c>
       <c r="I17">
-        <v>15.62</v>
+        <v>13.034000000000001</v>
       </c>
       <c r="J17">
-        <v>13.284000000000001</v>
+        <v>11.946</v>
       </c>
       <c r="K17">
-        <v>11.948</v>
+        <v>11.568</v>
       </c>
       <c r="L17">
-        <v>8.9540000000000006</v>
+        <v>9.01</v>
       </c>
       <c r="M17">
-        <v>14444444444</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13">
+        <v>11111111111</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A18">
-        <v>20100324</v>
+        <v>20100320</v>
       </c>
       <c r="B18">
-        <v>29.263999999999999</v>
+        <v>29.501999999999999</v>
       </c>
       <c r="C18">
-        <v>29.244</v>
+        <v>29.417999999999999</v>
       </c>
       <c r="D18">
-        <v>29.064</v>
+        <v>29.373999999999999</v>
       </c>
       <c r="E18">
-        <v>28.138000000000002</v>
+        <v>29.085999999999999</v>
       </c>
       <c r="F18">
-        <v>25.914000000000001</v>
+        <v>28.501999999999999</v>
       </c>
       <c r="G18">
-        <v>22.68</v>
+        <v>26.178000000000001</v>
       </c>
       <c r="H18">
-        <v>20.256</v>
+        <v>21.04</v>
       </c>
       <c r="I18">
-        <v>15.69</v>
+        <v>12.946</v>
       </c>
       <c r="J18">
-        <v>13.766</v>
+        <v>11.868</v>
       </c>
       <c r="K18">
-        <v>12.263999999999999</v>
+        <v>11.566000000000001</v>
       </c>
       <c r="L18">
-        <v>8.9580000000000002</v>
+        <v>9.25</v>
       </c>
       <c r="M18">
-        <v>14444444444</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13">
+        <v>11111111111</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A19">
-        <v>20100329</v>
+        <v>20100325</v>
       </c>
       <c r="B19">
-        <v>29.27</v>
+        <v>29.411999999999999</v>
       </c>
       <c r="C19">
-        <v>28.954000000000001</v>
+        <v>29.422000000000001</v>
       </c>
       <c r="D19">
-        <v>28.591999999999999</v>
+        <v>29.405999999999999</v>
       </c>
       <c r="E19">
-        <v>27.648</v>
+        <v>29.148</v>
       </c>
       <c r="F19">
-        <v>25.675999999999998</v>
+        <v>28.367999999999999</v>
       </c>
       <c r="G19">
-        <v>22.963999999999999</v>
+        <v>25.8</v>
       </c>
       <c r="H19">
-        <v>20.187999999999999</v>
+        <v>19.207999999999998</v>
       </c>
       <c r="I19">
-        <v>16.504000000000001</v>
+        <v>12.5</v>
       </c>
       <c r="J19">
-        <v>13.375999999999999</v>
+        <v>11.891999999999999</v>
       </c>
       <c r="K19">
-        <v>11.878</v>
+        <v>11.528</v>
       </c>
       <c r="L19">
-        <v>8.6219999999999999</v>
+        <v>9.0399999999999991</v>
       </c>
       <c r="M19">
         <v>11111111111</v>
       </c>
     </row>
-    <row r="20" spans="1:13">
+    <row r="20" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A20">
-        <v>20100403</v>
+        <v>20100330</v>
       </c>
       <c r="B20">
-        <v>29.358000000000001</v>
+        <v>29.404</v>
       </c>
       <c r="C20">
-        <v>29.15</v>
+        <v>29.198</v>
       </c>
       <c r="D20">
-        <v>28.821999999999999</v>
+        <v>29.143999999999998</v>
       </c>
       <c r="E20">
-        <v>27.873999999999999</v>
+        <v>29.084</v>
       </c>
       <c r="F20">
-        <v>26.478000000000002</v>
+        <v>28.66</v>
       </c>
       <c r="G20">
-        <v>22.956</v>
+        <v>24.228000000000002</v>
       </c>
       <c r="H20">
-        <v>20.507999999999999</v>
+        <v>18.512</v>
       </c>
       <c r="I20">
-        <v>15.442</v>
+        <v>12.391999999999999</v>
       </c>
       <c r="J20">
-        <v>13.116</v>
+        <v>11.804</v>
       </c>
       <c r="K20">
-        <v>12.007999999999999</v>
+        <v>11.464</v>
       </c>
       <c r="L20">
-        <v>8.5960000000000001</v>
+        <v>9.23</v>
       </c>
       <c r="M20">
         <v>11111111111</v>
       </c>
     </row>
-    <row r="21" spans="1:13">
+    <row r="21" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A21">
-        <v>20100408</v>
+        <v>20100404</v>
       </c>
       <c r="B21">
-        <v>29.814</v>
+        <v>29.385999999999999</v>
       </c>
       <c r="C21">
-        <v>29.181999999999999</v>
+        <v>29.321999999999999</v>
       </c>
       <c r="D21">
-        <v>28.707999999999998</v>
+        <v>29.26</v>
       </c>
       <c r="E21">
-        <v>28.14</v>
+        <v>29.09</v>
       </c>
       <c r="F21">
-        <v>25.69</v>
+        <v>28.475999999999999</v>
       </c>
       <c r="G21">
-        <v>21.738</v>
+        <v>24.832000000000001</v>
       </c>
       <c r="H21">
-        <v>20.584</v>
+        <v>19.698</v>
       </c>
       <c r="I21">
-        <v>15.672000000000001</v>
+        <v>12.502000000000001</v>
       </c>
       <c r="J21">
-        <v>13.082000000000001</v>
+        <v>11.878</v>
       </c>
       <c r="K21">
-        <v>11.976000000000001</v>
+        <v>11.486000000000001</v>
       </c>
       <c r="L21">
-        <v>8.7680000000000007</v>
+        <v>8.984</v>
       </c>
       <c r="M21">
         <v>11111111111</v>
       </c>
     </row>
-    <row r="22" spans="1:13">
+    <row r="22" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A22">
-        <v>20100413</v>
+        <v>20100409</v>
       </c>
       <c r="B22">
-        <v>29.18</v>
+        <v>29.803999999999998</v>
       </c>
       <c r="C22">
-        <v>29.02</v>
+        <v>29.56</v>
       </c>
       <c r="D22">
-        <v>28.614000000000001</v>
+        <v>29.457999999999998</v>
       </c>
       <c r="E22">
-        <v>27.87</v>
+        <v>29.064</v>
       </c>
       <c r="F22">
-        <v>25.61</v>
+        <v>28.202000000000002</v>
       </c>
       <c r="G22">
-        <v>22.498000000000001</v>
+        <v>25.032</v>
       </c>
       <c r="H22">
-        <v>20.902000000000001</v>
+        <v>19.795999999999999</v>
       </c>
       <c r="I22">
-        <v>14.651999999999999</v>
+        <v>12.35</v>
       </c>
       <c r="J22">
-        <v>12.752000000000001</v>
+        <v>11.772</v>
       </c>
       <c r="K22">
-        <v>11.694000000000001</v>
+        <v>11.43</v>
       </c>
       <c r="L22">
-        <v>8.7420000000000009</v>
+        <v>9.0579999999999998</v>
       </c>
       <c r="M22">
         <v>11111111111</v>
       </c>
     </row>
-    <row r="23" spans="1:13">
+    <row r="23" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A23">
-        <v>20100418</v>
+        <v>20100414</v>
       </c>
       <c r="B23">
-        <v>29.186</v>
+        <v>29.614000000000001</v>
       </c>
       <c r="C23">
-        <v>29.03</v>
+        <v>29.422000000000001</v>
       </c>
       <c r="D23">
-        <v>28.803999999999998</v>
+        <v>29.398</v>
       </c>
       <c r="E23">
-        <v>28.111999999999998</v>
+        <v>29.058</v>
       </c>
       <c r="F23">
-        <v>24.99</v>
+        <v>28.353999999999999</v>
       </c>
       <c r="G23">
-        <v>22.248000000000001</v>
+        <v>25.372</v>
       </c>
       <c r="H23">
-        <v>20.84</v>
+        <v>20.173999999999999</v>
       </c>
       <c r="I23">
-        <v>14.656000000000001</v>
+        <v>12.206</v>
       </c>
       <c r="J23">
-        <v>12.74</v>
+        <v>11.754</v>
       </c>
       <c r="K23">
-        <v>11.76</v>
+        <v>11.374000000000001</v>
       </c>
       <c r="L23">
-        <v>8.6839999999999993</v>
+        <v>8.8379999999999992</v>
       </c>
       <c r="M23">
         <v>11111111111</v>
       </c>
     </row>
-    <row r="24" spans="1:13">
+    <row r="24" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A24">
-        <v>20100423</v>
+        <v>20100419</v>
       </c>
       <c r="B24">
-        <v>29.507999999999999</v>
+        <v>29.545999999999999</v>
       </c>
       <c r="C24">
-        <v>29.09</v>
+        <v>29.431999999999999</v>
       </c>
       <c r="D24">
-        <v>28.878</v>
+        <v>29.38</v>
       </c>
       <c r="E24">
-        <v>27.85</v>
+        <v>29.236000000000001</v>
       </c>
       <c r="F24">
-        <v>24.596</v>
+        <v>28.588000000000001</v>
       </c>
       <c r="G24">
-        <v>22.643999999999998</v>
+        <v>25.364000000000001</v>
       </c>
       <c r="H24">
-        <v>20.128</v>
+        <v>19.344000000000001</v>
       </c>
       <c r="I24">
-        <v>14.67</v>
+        <v>12.396000000000001</v>
       </c>
       <c r="J24">
-        <v>12.682</v>
+        <v>11.827999999999999</v>
       </c>
       <c r="K24">
-        <v>11.738</v>
+        <v>11.51</v>
       </c>
       <c r="L24">
-        <v>8.26</v>
+        <v>8.8219999999999992</v>
       </c>
       <c r="M24">
         <v>11111111111</v>
       </c>
     </row>
-    <row r="25" spans="1:13">
+    <row r="25" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A25">
-        <v>20100428</v>
+        <v>20100424</v>
       </c>
       <c r="B25">
-        <v>29.36</v>
+        <v>29.834</v>
       </c>
       <c r="C25">
-        <v>29.155999999999999</v>
+        <v>29.686</v>
       </c>
       <c r="D25">
-        <v>28.92</v>
+        <v>29.655999999999999</v>
       </c>
       <c r="E25">
-        <v>28.212</v>
+        <v>29.248000000000001</v>
       </c>
       <c r="F25">
-        <v>25.282</v>
+        <v>27.654</v>
       </c>
       <c r="G25">
-        <v>22.673999999999999</v>
+        <v>23.344000000000001</v>
       </c>
       <c r="H25">
-        <v>20.352</v>
+        <v>18.515999999999998</v>
       </c>
       <c r="I25">
-        <v>14.257999999999999</v>
+        <v>12.21</v>
       </c>
       <c r="J25">
-        <v>12.772</v>
+        <v>11.776</v>
       </c>
       <c r="K25">
-        <v>11.71</v>
+        <v>11.372</v>
       </c>
       <c r="L25">
-        <v>8.452</v>
+        <v>8.6300000000000008</v>
       </c>
       <c r="M25">
         <v>11111111111</v>
       </c>
     </row>
-    <row r="26" spans="1:13">
+    <row r="26" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A26">
-        <v>20100503</v>
+        <v>20100429</v>
       </c>
       <c r="B26">
-        <v>29.036000000000001</v>
+        <v>29.536000000000001</v>
       </c>
       <c r="C26">
-        <v>29</v>
+        <v>29.462</v>
       </c>
       <c r="D26">
-        <v>28.914000000000001</v>
+        <v>29.446000000000002</v>
       </c>
       <c r="E26">
-        <v>28.143999999999998</v>
+        <v>29.213999999999999</v>
       </c>
       <c r="F26">
-        <v>24.408000000000001</v>
+        <v>27.696000000000002</v>
       </c>
       <c r="G26">
-        <v>22.998000000000001</v>
+        <v>24.38</v>
       </c>
       <c r="H26">
-        <v>19.704000000000001</v>
+        <v>19.361999999999998</v>
       </c>
       <c r="I26">
-        <v>15.006</v>
+        <v>12.244</v>
       </c>
       <c r="J26">
-        <v>12.88</v>
+        <v>11.75</v>
       </c>
       <c r="K26">
-        <v>11.763999999999999</v>
+        <v>11.262</v>
       </c>
       <c r="L26">
-        <v>8.5519999999999996</v>
+        <v>8.2759999999999998</v>
       </c>
       <c r="M26">
         <v>11111111111</v>
       </c>
     </row>
-    <row r="27" spans="1:13">
+    <row r="27" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A27">
-        <v>20100508</v>
+        <v>20100504</v>
       </c>
       <c r="B27">
-        <v>28.786000000000001</v>
+        <v>29.225999999999999</v>
       </c>
       <c r="C27">
-        <v>28.693999999999999</v>
+        <v>29.192</v>
       </c>
       <c r="D27">
-        <v>28.416</v>
+        <v>29.166</v>
       </c>
       <c r="E27">
-        <v>26.923999999999999</v>
+        <v>28.978000000000002</v>
       </c>
       <c r="F27">
-        <v>24.315999999999999</v>
+        <v>28.08</v>
       </c>
       <c r="G27">
-        <v>22.771999999999998</v>
+        <v>25.152000000000001</v>
       </c>
       <c r="H27">
-        <v>19.547999999999998</v>
+        <v>19.603999999999999</v>
       </c>
       <c r="I27">
-        <v>13.868</v>
+        <v>12.26</v>
       </c>
       <c r="J27">
-        <v>12.74</v>
+        <v>11.656000000000001</v>
       </c>
       <c r="K27">
-        <v>11.788</v>
+        <v>11.25</v>
       </c>
       <c r="L27">
-        <v>8.3140000000000001</v>
+        <v>8.5</v>
       </c>
       <c r="M27">
-        <v>11111111111</v>
-      </c>
-    </row>
-    <row r="28" spans="1:13">
+        <v>14444444444</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A28">
-        <v>20100513</v>
+        <v>20100509</v>
       </c>
       <c r="B28">
-        <v>28.888000000000002</v>
+        <v>29.234000000000002</v>
       </c>
       <c r="C28">
-        <v>28.678000000000001</v>
+        <v>29.146000000000001</v>
       </c>
       <c r="D28">
-        <v>28.314</v>
+        <v>29.123999999999999</v>
       </c>
       <c r="E28">
-        <v>27.594000000000001</v>
+        <v>28.916</v>
       </c>
       <c r="F28">
-        <v>25.032</v>
+        <v>27.786000000000001</v>
       </c>
       <c r="G28">
-        <v>22.09</v>
+        <v>24.562000000000001</v>
       </c>
       <c r="H28">
-        <v>19.884</v>
+        <v>19.352</v>
       </c>
       <c r="I28">
-        <v>14.52</v>
+        <v>12.167999999999999</v>
       </c>
       <c r="J28">
-        <v>12.6</v>
+        <v>11.462</v>
       </c>
       <c r="K28">
-        <v>11.75</v>
+        <v>11.112</v>
       </c>
       <c r="L28">
-        <v>8.4540000000000006</v>
+        <v>8.1579999999999995</v>
       </c>
       <c r="M28">
-        <v>11111111111</v>
-      </c>
-    </row>
-    <row r="29" spans="1:13">
+        <v>14444444444</v>
+      </c>
+    </row>
+    <row r="29" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A29">
-        <v>20100518</v>
+        <v>20100514</v>
       </c>
       <c r="B29">
-        <v>28.507999999999999</v>
+        <v>29.283999999999999</v>
       </c>
       <c r="C29">
-        <v>28.41</v>
+        <v>29.22</v>
       </c>
       <c r="D29">
-        <v>28.2</v>
+        <v>29.138000000000002</v>
       </c>
       <c r="E29">
-        <v>27.402000000000001</v>
+        <v>28.97</v>
       </c>
       <c r="F29">
-        <v>24.504000000000001</v>
+        <v>27.734000000000002</v>
       </c>
       <c r="G29">
-        <v>21.111999999999998</v>
+        <v>24.67</v>
       </c>
       <c r="H29">
-        <v>19.07</v>
+        <v>19.698</v>
       </c>
       <c r="I29">
-        <v>14.738</v>
+        <v>12.522</v>
       </c>
       <c r="J29">
-        <v>12.73</v>
+        <v>11.278</v>
       </c>
       <c r="K29">
-        <v>11.834</v>
+        <v>11.022</v>
       </c>
       <c r="L29">
-        <v>8.6319999999999997</v>
+        <v>8.0820000000000007</v>
       </c>
       <c r="M29">
-        <v>11111111111</v>
-      </c>
-    </row>
-    <row r="30" spans="1:13">
+        <v>14444444444</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A30">
-        <v>20100523</v>
+        <v>20100519</v>
       </c>
       <c r="B30">
-        <v>28.361999999999998</v>
+        <v>28.736000000000001</v>
       </c>
       <c r="C30">
-        <v>28.173999999999999</v>
+        <v>28.698</v>
       </c>
       <c r="D30">
-        <v>27.914000000000001</v>
+        <v>28.675999999999998</v>
       </c>
       <c r="E30">
-        <v>26.34</v>
+        <v>28.558</v>
       </c>
       <c r="F30">
-        <v>24.408000000000001</v>
+        <v>27.681999999999999</v>
       </c>
       <c r="G30">
-        <v>20.86</v>
+        <v>24.085999999999999</v>
       </c>
       <c r="H30">
-        <v>19.588000000000001</v>
+        <v>19.297999999999998</v>
       </c>
       <c r="I30">
-        <v>14.423999999999999</v>
+        <v>12.67</v>
       </c>
       <c r="J30">
-        <v>12.726000000000001</v>
+        <v>11.19</v>
       </c>
       <c r="K30">
-        <v>11.824</v>
+        <v>10.786</v>
       </c>
       <c r="L30">
-        <v>8.66</v>
+        <v>8.0220000000000002</v>
       </c>
       <c r="M30">
         <v>11111111111</v>
       </c>
     </row>
-    <row r="31" spans="1:13">
+    <row r="31" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A31">
-        <v>20100528</v>
+        <v>20100524</v>
       </c>
       <c r="B31">
-        <v>28.39</v>
+        <v>28.716000000000001</v>
       </c>
       <c r="C31">
-        <v>28.28</v>
+        <v>28.53</v>
       </c>
       <c r="D31">
+        <v>28.32</v>
+      </c>
+      <c r="E31">
         <v>28.138000000000002</v>
       </c>
-      <c r="E31">
-        <v>27.48</v>
-      </c>
       <c r="F31">
-        <v>25.288</v>
+        <v>27.937999999999999</v>
       </c>
       <c r="G31">
-        <v>21.225000000000001</v>
+        <v>24.878</v>
       </c>
       <c r="H31">
-        <v>19.62</v>
+        <v>20.286000000000001</v>
       </c>
       <c r="I31">
-        <v>13.85</v>
+        <v>12.916</v>
       </c>
       <c r="J31">
-        <v>12.827999999999999</v>
+        <v>11.356</v>
       </c>
       <c r="K31">
-        <v>11.757999999999999</v>
+        <v>10.798</v>
       </c>
       <c r="L31">
-        <v>8.548</v>
+        <v>8.3040000000000003</v>
       </c>
       <c r="M31">
+        <v>14444444444</v>
+      </c>
+    </row>
+    <row r="32" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A32">
+        <v>20100529</v>
+      </c>
+      <c r="B32">
+        <v>28.718</v>
+      </c>
+      <c r="C32">
+        <v>28.664000000000001</v>
+      </c>
+      <c r="D32">
+        <v>28.61</v>
+      </c>
+      <c r="E32">
+        <v>28.454000000000001</v>
+      </c>
+      <c r="F32">
+        <v>27.818000000000001</v>
+      </c>
+      <c r="G32">
+        <v>24.858000000000001</v>
+      </c>
+      <c r="H32">
+        <v>19.93</v>
+      </c>
+      <c r="I32">
+        <v>13.391999999999999</v>
+      </c>
+      <c r="J32">
+        <v>11.513999999999999</v>
+      </c>
+      <c r="K32">
+        <v>10.651999999999999</v>
+      </c>
+      <c r="L32">
+        <v>8.0359999999999996</v>
+      </c>
+      <c r="M32">
         <v>11111111111</v>
       </c>
     </row>
-    <row r="32" spans="1:13">
-      <c r="A32">
-        <v>20100602</v>
-      </c>
-      <c r="B32">
-        <v>28.596</v>
-      </c>
-      <c r="C32">
-        <v>28.446000000000002</v>
-      </c>
-      <c r="D32">
-        <v>28.15</v>
-      </c>
-      <c r="E32">
-        <v>27.315999999999999</v>
-      </c>
-      <c r="F32">
-        <v>24.006</v>
-      </c>
-      <c r="G32">
-        <v>-9.9990000000000006</v>
-      </c>
-      <c r="H32">
-        <v>19.861999999999998</v>
-      </c>
-      <c r="I32">
-        <v>14.996</v>
-      </c>
-      <c r="J32">
-        <v>12.73</v>
-      </c>
-      <c r="K32">
-        <v>11.7</v>
-      </c>
-      <c r="L32">
-        <v>8.3179999999999996</v>
-      </c>
-      <c r="M32">
-        <v>11111011111</v>
-      </c>
-    </row>
-    <row r="33" spans="1:13">
+    <row r="33" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A33">
-        <v>20100607</v>
+        <v>20100603</v>
       </c>
       <c r="B33">
-        <v>28.335999999999999</v>
+        <v>28.681999999999999</v>
       </c>
       <c r="C33">
-        <v>28.274000000000001</v>
+        <v>28.603999999999999</v>
       </c>
       <c r="D33">
-        <v>28.158000000000001</v>
+        <v>28.553999999999998</v>
       </c>
       <c r="E33">
-        <v>27.72</v>
+        <v>28.488</v>
       </c>
       <c r="F33">
-        <v>24.962</v>
+        <v>28.186</v>
       </c>
       <c r="G33">
-        <v>22.018000000000001</v>
+        <v>24.507999999999999</v>
       </c>
       <c r="H33">
-        <v>19.75</v>
+        <v>19.718</v>
       </c>
       <c r="I33">
-        <v>14.936</v>
+        <v>13.555999999999999</v>
       </c>
       <c r="J33">
-        <v>12.552</v>
+        <v>11.141999999999999</v>
       </c>
       <c r="K33">
-        <v>11.672000000000001</v>
+        <v>10.35</v>
       </c>
       <c r="L33">
-        <v>8.4179999999999993</v>
+        <v>7.984</v>
       </c>
       <c r="M33">
         <v>11111111111</v>
       </c>
     </row>
-    <row r="34" spans="1:13">
+    <row r="34" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A34">
-        <v>20100612</v>
+        <v>20100608</v>
       </c>
       <c r="B34">
-        <v>28.376000000000001</v>
+        <v>28.841999999999999</v>
       </c>
       <c r="C34">
-        <v>28.297999999999998</v>
+        <v>28.797999999999998</v>
       </c>
       <c r="D34">
-        <v>28.213999999999999</v>
+        <v>28.771999999999998</v>
       </c>
       <c r="E34">
-        <v>27.045999999999999</v>
+        <v>28.475999999999999</v>
       </c>
       <c r="F34">
-        <v>24.181999999999999</v>
+        <v>27.878</v>
       </c>
       <c r="G34">
-        <v>21.977</v>
+        <v>24.358000000000001</v>
       </c>
       <c r="H34">
-        <v>20.9</v>
+        <v>19.102</v>
       </c>
       <c r="I34">
-        <v>14.834</v>
+        <v>13.295999999999999</v>
       </c>
       <c r="J34">
-        <v>12.454000000000001</v>
+        <v>11.388</v>
       </c>
       <c r="K34">
-        <v>11.584</v>
+        <v>10.52</v>
       </c>
       <c r="L34">
-        <v>8.468</v>
+        <v>7.99</v>
       </c>
       <c r="M34">
+        <v>11111111114</v>
+      </c>
+    </row>
+    <row r="35" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A35">
+        <v>20100613</v>
+      </c>
+      <c r="B35">
+        <v>28.286000000000001</v>
+      </c>
+      <c r="C35">
+        <v>28.216000000000001</v>
+      </c>
+      <c r="D35">
+        <v>28.152000000000001</v>
+      </c>
+      <c r="E35">
+        <v>28.024000000000001</v>
+      </c>
+      <c r="F35">
+        <v>27.681999999999999</v>
+      </c>
+      <c r="G35">
+        <v>24.434000000000001</v>
+      </c>
+      <c r="H35">
+        <v>19.776</v>
+      </c>
+      <c r="I35">
+        <v>13.592000000000001</v>
+      </c>
+      <c r="J35">
+        <v>11.412000000000001</v>
+      </c>
+      <c r="K35">
+        <v>10.625999999999999</v>
+      </c>
+      <c r="L35">
+        <v>8.0380000000000003</v>
+      </c>
+      <c r="M35">
         <v>11111111111</v>
       </c>
     </row>
-    <row r="35" spans="1:13">
-      <c r="A35">
-        <v>20100617</v>
-      </c>
-      <c r="B35">
-        <v>28.042000000000002</v>
-      </c>
-      <c r="C35">
-        <v>27.975999999999999</v>
-      </c>
-      <c r="D35">
-        <v>27.84</v>
-      </c>
-      <c r="E35">
-        <v>27.228000000000002</v>
-      </c>
-      <c r="F35">
-        <v>25.154</v>
-      </c>
-      <c r="G35">
-        <v>-9.9990000000000006</v>
-      </c>
-      <c r="H35">
-        <v>19.602</v>
-      </c>
-      <c r="I35">
-        <v>14.768000000000001</v>
-      </c>
-      <c r="J35">
-        <v>12.472</v>
-      </c>
-      <c r="K35">
-        <v>11.534000000000001</v>
-      </c>
-      <c r="L35">
-        <v>8.32</v>
-      </c>
-      <c r="M35">
-        <v>11111011111</v>
-      </c>
-    </row>
-    <row r="36" spans="1:13">
+    <row r="36" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A36">
-        <v>20100622</v>
+        <v>20100618</v>
       </c>
       <c r="B36">
-        <v>28.027999999999999</v>
+        <v>27.911999999999999</v>
       </c>
       <c r="C36">
-        <v>27.934000000000001</v>
+        <v>27.824000000000002</v>
       </c>
       <c r="D36">
-        <v>27.774000000000001</v>
+        <v>27.768000000000001</v>
       </c>
       <c r="E36">
-        <v>26.876000000000001</v>
+        <v>27.765999999999998</v>
       </c>
       <c r="F36">
-        <v>25.225999999999999</v>
+        <v>27.64</v>
       </c>
       <c r="G36">
-        <v>-9.9990000000000006</v>
+        <v>24.34</v>
       </c>
       <c r="H36">
-        <v>19.212</v>
+        <v>19.013999999999999</v>
       </c>
       <c r="I36">
-        <v>15.752000000000001</v>
+        <v>13.316000000000001</v>
       </c>
       <c r="J36">
-        <v>12.676</v>
+        <v>11.513999999999999</v>
       </c>
       <c r="K36">
-        <v>11.634</v>
+        <v>10.808</v>
       </c>
       <c r="L36">
-        <v>8.3919999999999995</v>
+        <v>8.0060000000000002</v>
       </c>
       <c r="M36">
-        <v>11111011111</v>
-      </c>
-    </row>
-    <row r="37" spans="1:13">
+        <v>11111111111</v>
+      </c>
+    </row>
+    <row r="37" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A37">
-        <v>20100627</v>
+        <v>20100623</v>
       </c>
       <c r="B37">
-        <v>28.297999999999998</v>
+        <v>28.256</v>
       </c>
       <c r="C37">
-        <v>28.244</v>
+        <v>28.187999999999999</v>
       </c>
       <c r="D37">
-        <v>27.742000000000001</v>
+        <v>28.064</v>
       </c>
       <c r="E37">
-        <v>27.08</v>
+        <v>27.902000000000001</v>
       </c>
       <c r="F37">
-        <v>26.166</v>
+        <v>27.582000000000001</v>
       </c>
       <c r="G37">
-        <v>20.58</v>
+        <v>24.702000000000002</v>
       </c>
       <c r="H37">
-        <v>19.059999999999999</v>
+        <v>19.327999999999999</v>
       </c>
       <c r="I37">
-        <v>14.878</v>
+        <v>13.048</v>
       </c>
       <c r="J37">
-        <v>12.47</v>
+        <v>11.428000000000001</v>
       </c>
       <c r="K37">
-        <v>11.507999999999999</v>
+        <v>10.866</v>
       </c>
       <c r="L37">
-        <v>8.4120000000000008</v>
+        <v>8.0640000000000001</v>
       </c>
       <c r="M37">
         <v>11111111111</v>
       </c>
     </row>
-    <row r="38" spans="1:13">
+    <row r="38" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A38">
-        <v>20100702</v>
+        <v>20100628</v>
       </c>
       <c r="B38">
-        <v>28.196000000000002</v>
+        <v>28.327999999999999</v>
       </c>
       <c r="C38">
+        <v>28.277999999999999</v>
+      </c>
+      <c r="D38">
+        <v>28.238</v>
+      </c>
+      <c r="E38">
+        <v>28.085999999999999</v>
+      </c>
+      <c r="F38">
+        <v>27.44</v>
+      </c>
+      <c r="G38">
+        <v>23.783999999999999</v>
+      </c>
+      <c r="H38">
+        <v>18.952000000000002</v>
+      </c>
+      <c r="I38">
+        <v>12.996</v>
+      </c>
+      <c r="J38">
+        <v>11.28</v>
+      </c>
+      <c r="K38">
+        <v>10.72</v>
+      </c>
+      <c r="L38">
+        <v>8.0220000000000002</v>
+      </c>
+      <c r="M38">
+        <v>11111111111</v>
+      </c>
+    </row>
+    <row r="39" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A39">
+        <v>20100703</v>
+      </c>
+      <c r="B39">
+        <v>28.216000000000001</v>
+      </c>
+      <c r="C39">
+        <v>28.117999999999999</v>
+      </c>
+      <c r="D39">
+        <v>28.09</v>
+      </c>
+      <c r="E39">
+        <v>28.021999999999998</v>
+      </c>
+      <c r="F39">
+        <v>27.324000000000002</v>
+      </c>
+      <c r="G39">
+        <v>23.268000000000001</v>
+      </c>
+      <c r="H39">
+        <v>17.989999999999998</v>
+      </c>
+      <c r="I39">
+        <v>12.6</v>
+      </c>
+      <c r="J39">
+        <v>11.182</v>
+      </c>
+      <c r="K39">
+        <v>10.786</v>
+      </c>
+      <c r="L39">
+        <v>7.992</v>
+      </c>
+      <c r="M39">
+        <v>11111111111</v>
+      </c>
+    </row>
+    <row r="40" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A40">
+        <v>20100708</v>
+      </c>
+      <c r="B40">
         <v>28.04</v>
       </c>
-      <c r="D38">
-        <v>27.553999999999998</v>
-      </c>
-      <c r="E38">
-        <v>27.187999999999999</v>
-      </c>
-      <c r="F38">
-        <v>25.788</v>
-      </c>
-      <c r="G38">
+      <c r="C40">
+        <v>27.992000000000001</v>
+      </c>
+      <c r="D40">
+        <v>27.97</v>
+      </c>
+      <c r="E40">
+        <v>27.898</v>
+      </c>
+      <c r="F40">
+        <v>27.231999999999999</v>
+      </c>
+      <c r="G40">
+        <v>23.31</v>
+      </c>
+      <c r="H40">
+        <v>18.527999999999999</v>
+      </c>
+      <c r="I40">
+        <v>12.848000000000001</v>
+      </c>
+      <c r="J40">
+        <v>11.416</v>
+      </c>
+      <c r="K40">
+        <v>10.784000000000001</v>
+      </c>
+      <c r="L40">
+        <v>8.2720000000000002</v>
+      </c>
+      <c r="M40">
+        <v>11111111111</v>
+      </c>
+    </row>
+    <row r="41" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A41">
+        <v>20100713</v>
+      </c>
+      <c r="B41">
+        <v>28.181999999999999</v>
+      </c>
+      <c r="C41">
+        <v>27.93</v>
+      </c>
+      <c r="D41">
+        <v>27.632000000000001</v>
+      </c>
+      <c r="E41">
+        <v>27.216000000000001</v>
+      </c>
+      <c r="F41">
+        <v>26.966000000000001</v>
+      </c>
+      <c r="G41">
+        <v>24.617999999999999</v>
+      </c>
+      <c r="H41">
+        <v>19.149999999999999</v>
+      </c>
+      <c r="I41">
+        <v>13.098000000000001</v>
+      </c>
+      <c r="J41">
+        <v>11.327999999999999</v>
+      </c>
+      <c r="K41">
+        <v>10.76</v>
+      </c>
+      <c r="L41">
+        <v>8.2140000000000004</v>
+      </c>
+      <c r="M41">
+        <v>11111111111</v>
+      </c>
+    </row>
+    <row r="42" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A42">
+        <v>20100718</v>
+      </c>
+      <c r="B42">
+        <v>27.936</v>
+      </c>
+      <c r="C42">
+        <v>27.885999999999999</v>
+      </c>
+      <c r="D42">
+        <v>27.86</v>
+      </c>
+      <c r="E42">
+        <v>27.632000000000001</v>
+      </c>
+      <c r="F42">
+        <v>27.058</v>
+      </c>
+      <c r="G42">
+        <v>25.66</v>
+      </c>
+      <c r="H42">
+        <v>19.472000000000001</v>
+      </c>
+      <c r="I42">
+        <v>13.156000000000001</v>
+      </c>
+      <c r="J42">
+        <v>11.417999999999999</v>
+      </c>
+      <c r="K42">
+        <v>10.752000000000001</v>
+      </c>
+      <c r="L42">
+        <v>8.2360000000000007</v>
+      </c>
+      <c r="M42">
+        <v>11111111111</v>
+      </c>
+    </row>
+    <row r="43" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A43">
+        <v>20100723</v>
+      </c>
+      <c r="B43">
+        <v>27.928000000000001</v>
+      </c>
+      <c r="C43">
+        <v>27.908000000000001</v>
+      </c>
+      <c r="D43">
+        <v>27.853999999999999</v>
+      </c>
+      <c r="E43">
+        <v>27.713999999999999</v>
+      </c>
+      <c r="F43">
+        <v>27.576000000000001</v>
+      </c>
+      <c r="G43">
+        <v>24.248000000000001</v>
+      </c>
+      <c r="H43">
+        <v>19.353999999999999</v>
+      </c>
+      <c r="I43">
+        <v>12.926</v>
+      </c>
+      <c r="J43">
+        <v>11.332000000000001</v>
+      </c>
+      <c r="K43">
+        <v>10.834</v>
+      </c>
+      <c r="L43">
+        <v>8.5259999999999998</v>
+      </c>
+      <c r="M43">
+        <v>11111111111</v>
+      </c>
+    </row>
+    <row r="44" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A44">
+        <v>20100728</v>
+      </c>
+      <c r="B44">
+        <v>27.95</v>
+      </c>
+      <c r="C44">
+        <v>27.916</v>
+      </c>
+      <c r="D44">
+        <v>27.795999999999999</v>
+      </c>
+      <c r="E44">
+        <v>27.565999999999999</v>
+      </c>
+      <c r="F44">
+        <v>27.422000000000001</v>
+      </c>
+      <c r="G44">
+        <v>23.417999999999999</v>
+      </c>
+      <c r="H44">
+        <v>17.474</v>
+      </c>
+      <c r="I44">
+        <v>12.452</v>
+      </c>
+      <c r="J44">
+        <v>11.396000000000001</v>
+      </c>
+      <c r="K44">
+        <v>10.956</v>
+      </c>
+      <c r="L44">
+        <v>8.4160000000000004</v>
+      </c>
+      <c r="M44">
+        <v>11111111111</v>
+      </c>
+    </row>
+    <row r="45" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A45">
+        <v>20100802</v>
+      </c>
+      <c r="B45">
+        <v>27.765999999999998</v>
+      </c>
+      <c r="C45">
+        <v>27.687999999999999</v>
+      </c>
+      <c r="D45">
+        <v>27.597999999999999</v>
+      </c>
+      <c r="E45">
+        <v>27.248000000000001</v>
+      </c>
+      <c r="F45">
+        <v>26.89</v>
+      </c>
+      <c r="G45">
+        <v>24.111999999999998</v>
+      </c>
+      <c r="H45">
+        <v>17.559999999999999</v>
+      </c>
+      <c r="I45">
+        <v>12.576000000000001</v>
+      </c>
+      <c r="J45">
+        <v>11.548</v>
+      </c>
+      <c r="K45">
+        <v>11.052</v>
+      </c>
+      <c r="L45">
+        <v>8.7100000000000009</v>
+      </c>
+      <c r="M45">
+        <v>11111111111</v>
+      </c>
+    </row>
+    <row r="46" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A46">
+        <v>20100807</v>
+      </c>
+      <c r="B46">
+        <v>27.524000000000001</v>
+      </c>
+      <c r="C46">
+        <v>27.49</v>
+      </c>
+      <c r="D46">
+        <v>27.456</v>
+      </c>
+      <c r="E46">
+        <v>27.372</v>
+      </c>
+      <c r="F46">
+        <v>27.047999999999998</v>
+      </c>
+      <c r="G46">
+        <v>23.596</v>
+      </c>
+      <c r="H46">
+        <v>17.681999999999999</v>
+      </c>
+      <c r="I46">
+        <v>12.308</v>
+      </c>
+      <c r="J46">
+        <v>11.506</v>
+      </c>
+      <c r="K46">
+        <v>11.122</v>
+      </c>
+      <c r="L46">
+        <v>8.74</v>
+      </c>
+      <c r="M46">
+        <v>11111111111</v>
+      </c>
+    </row>
+    <row r="47" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A47">
+        <v>20100812</v>
+      </c>
+      <c r="B47">
+        <v>27.346</v>
+      </c>
+      <c r="C47">
+        <v>27.244</v>
+      </c>
+      <c r="D47">
+        <v>27.164000000000001</v>
+      </c>
+      <c r="E47">
+        <v>27.056000000000001</v>
+      </c>
+      <c r="F47">
+        <v>26.515999999999998</v>
+      </c>
+      <c r="G47">
+        <v>22.34</v>
+      </c>
+      <c r="H47">
+        <v>16.334</v>
+      </c>
+      <c r="I47">
+        <v>12.33</v>
+      </c>
+      <c r="J47">
+        <v>11.644</v>
+      </c>
+      <c r="K47">
+        <v>11.188000000000001</v>
+      </c>
+      <c r="L47">
+        <v>8.77</v>
+      </c>
+      <c r="M47">
+        <v>11111111111</v>
+      </c>
+    </row>
+    <row r="48" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A48">
+        <v>20100817</v>
+      </c>
+      <c r="B48">
+        <v>27.175999999999998</v>
+      </c>
+      <c r="C48">
+        <v>27.047999999999998</v>
+      </c>
+      <c r="D48">
+        <v>26.867999999999999</v>
+      </c>
+      <c r="E48">
+        <v>26.675999999999998</v>
+      </c>
+      <c r="F48">
+        <v>26.276</v>
+      </c>
+      <c r="G48">
+        <v>23.173999999999999</v>
+      </c>
+      <c r="H48">
+        <v>18.260000000000002</v>
+      </c>
+      <c r="I48">
+        <v>12.53</v>
+      </c>
+      <c r="J48">
+        <v>11.662000000000001</v>
+      </c>
+      <c r="K48">
+        <v>11.128</v>
+      </c>
+      <c r="L48">
+        <v>8.8919999999999995</v>
+      </c>
+      <c r="M48">
+        <v>11111111111</v>
+      </c>
+    </row>
+    <row r="49" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A49">
+        <v>20100822</v>
+      </c>
+      <c r="B49">
+        <v>27.495999999999999</v>
+      </c>
+      <c r="C49">
+        <v>27.468</v>
+      </c>
+      <c r="D49">
+        <v>27.405999999999999</v>
+      </c>
+      <c r="E49">
+        <v>27.193999999999999</v>
+      </c>
+      <c r="F49">
+        <v>26.532</v>
+      </c>
+      <c r="G49">
+        <v>23.254000000000001</v>
+      </c>
+      <c r="H49">
+        <v>17.448</v>
+      </c>
+      <c r="I49">
+        <v>12.348000000000001</v>
+      </c>
+      <c r="J49">
+        <v>11.542</v>
+      </c>
+      <c r="K49">
+        <v>11.148</v>
+      </c>
+      <c r="L49">
+        <v>8.9380000000000006</v>
+      </c>
+      <c r="M49">
+        <v>11111111111</v>
+      </c>
+    </row>
+    <row r="50" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A50">
+        <v>20100827</v>
+      </c>
+      <c r="B50">
+        <v>27.556000000000001</v>
+      </c>
+      <c r="C50">
+        <v>27.524000000000001</v>
+      </c>
+      <c r="D50">
+        <v>27.515999999999998</v>
+      </c>
+      <c r="E50">
+        <v>27.486000000000001</v>
+      </c>
+      <c r="F50">
+        <v>26.571999999999999</v>
+      </c>
+      <c r="G50">
+        <v>21.797999999999998</v>
+      </c>
+      <c r="H50">
+        <v>16.416</v>
+      </c>
+      <c r="I50">
+        <v>12.18</v>
+      </c>
+      <c r="J50">
+        <v>11.456</v>
+      </c>
+      <c r="K50">
+        <v>11.21</v>
+      </c>
+      <c r="L50">
+        <v>8.8379999999999992</v>
+      </c>
+      <c r="M50">
+        <v>11111111111</v>
+      </c>
+    </row>
+    <row r="51" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A51">
+        <v>20100901</v>
+      </c>
+      <c r="B51">
+        <v>27.126000000000001</v>
+      </c>
+      <c r="C51">
+        <v>27.071999999999999</v>
+      </c>
+      <c r="D51">
+        <v>26.995999999999999</v>
+      </c>
+      <c r="E51">
+        <v>26.878</v>
+      </c>
+      <c r="F51">
+        <v>26.762</v>
+      </c>
+      <c r="G51">
+        <v>24.28</v>
+      </c>
+      <c r="H51">
+        <v>18.103999999999999</v>
+      </c>
+      <c r="I51">
+        <v>12.74</v>
+      </c>
+      <c r="J51">
+        <v>11.596</v>
+      </c>
+      <c r="K51">
+        <v>11.273999999999999</v>
+      </c>
+      <c r="L51">
+        <v>8.92</v>
+      </c>
+      <c r="M51">
+        <v>11111111111</v>
+      </c>
+    </row>
+    <row r="52" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A52">
+        <v>20100906</v>
+      </c>
+      <c r="B52">
+        <v>26.754000000000001</v>
+      </c>
+      <c r="C52">
+        <v>26.702000000000002</v>
+      </c>
+      <c r="D52">
+        <v>26.667999999999999</v>
+      </c>
+      <c r="E52">
+        <v>26.603999999999999</v>
+      </c>
+      <c r="F52">
+        <v>26.495999999999999</v>
+      </c>
+      <c r="G52">
+        <v>25.994</v>
+      </c>
+      <c r="H52">
+        <v>20.63</v>
+      </c>
+      <c r="I52">
+        <v>12.994</v>
+      </c>
+      <c r="J52">
+        <v>11.587999999999999</v>
+      </c>
+      <c r="K52">
+        <v>11.263999999999999</v>
+      </c>
+      <c r="L52">
+        <v>8.9659999999999993</v>
+      </c>
+      <c r="M52">
+        <v>11111111111</v>
+      </c>
+    </row>
+    <row r="53" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A53">
+        <v>20100911</v>
+      </c>
+      <c r="B53">
+        <v>27.166</v>
+      </c>
+      <c r="C53">
+        <v>27.103999999999999</v>
+      </c>
+      <c r="D53">
+        <v>26.853999999999999</v>
+      </c>
+      <c r="E53">
+        <v>26.533999999999999</v>
+      </c>
+      <c r="F53">
+        <v>26.352</v>
+      </c>
+      <c r="G53">
+        <v>25.95</v>
+      </c>
+      <c r="H53">
+        <v>20.143999999999998</v>
+      </c>
+      <c r="I53">
+        <v>12.932</v>
+      </c>
+      <c r="J53">
+        <v>11.536</v>
+      </c>
+      <c r="K53">
+        <v>11.192</v>
+      </c>
+      <c r="L53">
+        <v>8.8320000000000007</v>
+      </c>
+      <c r="M53">
+        <v>11111111111</v>
+      </c>
+    </row>
+    <row r="54" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A54">
+        <v>20100916</v>
+      </c>
+      <c r="B54">
+        <v>27.434000000000001</v>
+      </c>
+      <c r="C54">
+        <v>27.388000000000002</v>
+      </c>
+      <c r="D54">
+        <v>27.346</v>
+      </c>
+      <c r="E54">
+        <v>27.122</v>
+      </c>
+      <c r="F54">
+        <v>26.404</v>
+      </c>
+      <c r="G54">
+        <v>21.414000000000001</v>
+      </c>
+      <c r="H54">
+        <v>15.77</v>
+      </c>
+      <c r="I54">
+        <v>11.704000000000001</v>
+      </c>
+      <c r="J54">
+        <v>11.458</v>
+      </c>
+      <c r="K54">
+        <v>11.082000000000001</v>
+      </c>
+      <c r="L54">
+        <v>8.718</v>
+      </c>
+      <c r="M54">
+        <v>11111111111</v>
+      </c>
+    </row>
+    <row r="55" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A55">
+        <v>20100921</v>
+      </c>
+      <c r="B55">
+        <v>27.074000000000002</v>
+      </c>
+      <c r="C55">
+        <v>27.032</v>
+      </c>
+      <c r="D55">
+        <v>27.004000000000001</v>
+      </c>
+      <c r="E55">
         <v>-9.9990000000000006</v>
       </c>
-      <c r="H38">
-        <v>20.198</v>
-      </c>
-      <c r="I38">
-        <v>15.023999999999999</v>
-      </c>
-      <c r="J38">
-        <v>12.4</v>
-      </c>
-      <c r="K38">
+      <c r="F55">
+        <v>26.33</v>
+      </c>
+      <c r="G55">
+        <v>21.776</v>
+      </c>
+      <c r="H55">
+        <v>15.554</v>
+      </c>
+      <c r="I55">
+        <v>10.814</v>
+      </c>
+      <c r="J55">
+        <v>11.516</v>
+      </c>
+      <c r="K55">
+        <v>11.193</v>
+      </c>
+      <c r="L55">
+        <v>8.7940000000000005</v>
+      </c>
+      <c r="M55">
+        <v>11101114111</v>
+      </c>
+    </row>
+    <row r="56" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A56">
+        <v>20100926</v>
+      </c>
+      <c r="B56">
+        <v>26.43</v>
+      </c>
+      <c r="C56">
+        <v>26.288</v>
+      </c>
+      <c r="D56">
+        <v>26.236000000000001</v>
+      </c>
+      <c r="E56">
+        <v>26.122</v>
+      </c>
+      <c r="F56">
+        <v>26.11</v>
+      </c>
+      <c r="G56">
+        <v>24.538</v>
+      </c>
+      <c r="H56">
+        <v>18.416</v>
+      </c>
+      <c r="I56">
+        <v>11.064</v>
+      </c>
+      <c r="J56">
+        <v>11.766</v>
+      </c>
+      <c r="K56">
+        <v>11.23</v>
+      </c>
+      <c r="L56">
+        <v>8.9480000000000004</v>
+      </c>
+      <c r="M56">
+        <v>11111114111</v>
+      </c>
+    </row>
+    <row r="57" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A57">
+        <v>20101001</v>
+      </c>
+      <c r="B57">
+        <v>26.526</v>
+      </c>
+      <c r="C57">
+        <v>26.446000000000002</v>
+      </c>
+      <c r="D57">
+        <v>26.408000000000001</v>
+      </c>
+      <c r="E57">
+        <v>26.364000000000001</v>
+      </c>
+      <c r="F57">
+        <v>26.276</v>
+      </c>
+      <c r="G57">
+        <v>25.97</v>
+      </c>
+      <c r="H57">
+        <v>21.597999999999999</v>
+      </c>
+      <c r="I57">
+        <v>12.016</v>
+      </c>
+      <c r="J57">
+        <v>11.962</v>
+      </c>
+      <c r="K57">
+        <v>11.222</v>
+      </c>
+      <c r="L57">
+        <v>9.0380000000000003</v>
+      </c>
+      <c r="M57">
+        <v>11111114111</v>
+      </c>
+    </row>
+    <row r="58" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A58">
+        <v>20101006</v>
+      </c>
+      <c r="B58">
+        <v>26.93</v>
+      </c>
+      <c r="C58">
+        <v>26.888000000000002</v>
+      </c>
+      <c r="D58">
+        <v>26.847999999999999</v>
+      </c>
+      <c r="E58">
+        <v>26.79</v>
+      </c>
+      <c r="F58">
+        <v>26.614000000000001</v>
+      </c>
+      <c r="G58">
+        <v>25.88</v>
+      </c>
+      <c r="H58">
+        <v>23.376000000000001</v>
+      </c>
+      <c r="I58">
+        <v>12.632</v>
+      </c>
+      <c r="J58">
+        <v>12.055999999999999</v>
+      </c>
+      <c r="K58">
+        <v>10.782</v>
+      </c>
+      <c r="L58">
+        <v>8.7780000000000005</v>
+      </c>
+      <c r="M58">
+        <v>11111114111</v>
+      </c>
+    </row>
+    <row r="59" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A59">
+        <v>20101011</v>
+      </c>
+      <c r="B59">
+        <v>27.085999999999999</v>
+      </c>
+      <c r="C59">
+        <v>27.045999999999999</v>
+      </c>
+      <c r="D59">
+        <v>27.012</v>
+      </c>
+      <c r="E59">
+        <v>26.923999999999999</v>
+      </c>
+      <c r="F59">
+        <v>26.513999999999999</v>
+      </c>
+      <c r="G59">
+        <v>25.738</v>
+      </c>
+      <c r="H59">
+        <v>23.277999999999999</v>
+      </c>
+      <c r="I59">
+        <v>12.802</v>
+      </c>
+      <c r="J59">
+        <v>11.654</v>
+      </c>
+      <c r="K59">
+        <v>10.853999999999999</v>
+      </c>
+      <c r="L59">
+        <v>8.68</v>
+      </c>
+      <c r="M59">
+        <v>11111114111</v>
+      </c>
+    </row>
+    <row r="60" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A60">
+        <v>20101016</v>
+      </c>
+      <c r="B60">
+        <v>25.794</v>
+      </c>
+      <c r="C60">
+        <v>25.702000000000002</v>
+      </c>
+      <c r="D60">
+        <v>25.69</v>
+      </c>
+      <c r="E60">
+        <v>25.702000000000002</v>
+      </c>
+      <c r="F60">
+        <v>25.716000000000001</v>
+      </c>
+      <c r="G60">
+        <v>25.76</v>
+      </c>
+      <c r="H60">
+        <v>25.14</v>
+      </c>
+      <c r="I60">
+        <v>13.634</v>
+      </c>
+      <c r="J60">
+        <v>12.044</v>
+      </c>
+      <c r="K60">
+        <v>10.798</v>
+      </c>
+      <c r="L60">
+        <v>8.6219999999999999</v>
+      </c>
+      <c r="M60">
+        <v>11111114111</v>
+      </c>
+    </row>
+    <row r="61" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A61">
+        <v>20101021</v>
+      </c>
+      <c r="B61">
+        <v>26.352</v>
+      </c>
+      <c r="C61">
+        <v>26.25</v>
+      </c>
+      <c r="D61">
+        <v>26.114000000000001</v>
+      </c>
+      <c r="E61">
+        <v>25.78</v>
+      </c>
+      <c r="F61">
+        <v>25.655999999999999</v>
+      </c>
+      <c r="G61">
+        <v>25.646000000000001</v>
+      </c>
+      <c r="H61">
+        <v>25.507999999999999</v>
+      </c>
+      <c r="I61">
+        <v>13.002000000000001</v>
+      </c>
+      <c r="J61">
+        <v>11.295999999999999</v>
+      </c>
+      <c r="K61">
+        <v>10.797000000000001</v>
+      </c>
+      <c r="L61">
+        <v>8.6920000000000002</v>
+      </c>
+      <c r="M61">
+        <v>14414444414</v>
+      </c>
+    </row>
+    <row r="62" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A62">
+        <v>20101026</v>
+      </c>
+      <c r="B62">
+        <v>26.231999999999999</v>
+      </c>
+      <c r="C62">
+        <v>25.957999999999998</v>
+      </c>
+      <c r="D62">
+        <v>25.928000000000001</v>
+      </c>
+      <c r="E62">
+        <v>25.795000000000002</v>
+      </c>
+      <c r="F62">
+        <v>25.917999999999999</v>
+      </c>
+      <c r="G62">
+        <v>25.832000000000001</v>
+      </c>
+      <c r="H62">
+        <v>24.952000000000002</v>
+      </c>
+      <c r="I62">
+        <v>12.45</v>
+      </c>
+      <c r="J62">
         <v>11.412000000000001</v>
       </c>
-      <c r="L38">
-        <v>8.5760000000000005</v>
-      </c>
-      <c r="M38">
-        <v>11111011114</v>
-      </c>
-    </row>
-    <row r="39" spans="1:13">
-      <c r="A39">
-        <v>20100707</v>
-      </c>
-      <c r="B39">
-        <v>27.905999999999999</v>
-      </c>
-      <c r="C39">
-        <v>27.818000000000001</v>
-      </c>
-      <c r="D39">
-        <v>27.64</v>
-      </c>
-      <c r="E39">
-        <v>27.11</v>
-      </c>
-      <c r="F39">
-        <v>25.452000000000002</v>
-      </c>
-      <c r="G39">
+      <c r="K62">
+        <v>11.302</v>
+      </c>
+      <c r="L62">
+        <v>9.1560000000000006</v>
+      </c>
+      <c r="M62">
+        <v>14414444414</v>
+      </c>
+    </row>
+    <row r="63" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A63">
+        <v>20101031</v>
+      </c>
+      <c r="B63">
+        <v>26.213999999999999</v>
+      </c>
+      <c r="C63">
+        <v>26.122</v>
+      </c>
+      <c r="D63">
+        <v>26.276</v>
+      </c>
+      <c r="E63">
+        <v>25.945</v>
+      </c>
+      <c r="F63">
+        <v>25.861999999999998</v>
+      </c>
+      <c r="G63">
+        <v>25.795999999999999</v>
+      </c>
+      <c r="H63">
+        <v>25.231999999999999</v>
+      </c>
+      <c r="I63">
+        <v>12.84</v>
+      </c>
+      <c r="J63">
+        <v>11.368</v>
+      </c>
+      <c r="K63">
+        <v>11.08</v>
+      </c>
+      <c r="L63">
+        <v>9.0519999999999996</v>
+      </c>
+      <c r="M63">
+        <v>11111114111</v>
+      </c>
+    </row>
+    <row r="64" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A64">
+        <v>20101105</v>
+      </c>
+      <c r="B64">
+        <v>26.866</v>
+      </c>
+      <c r="C64">
+        <v>26.821999999999999</v>
+      </c>
+      <c r="D64">
+        <v>26.576000000000001</v>
+      </c>
+      <c r="E64">
+        <v>26.155000000000001</v>
+      </c>
+      <c r="F64">
+        <v>25.954000000000001</v>
+      </c>
+      <c r="G64">
+        <v>25.696000000000002</v>
+      </c>
+      <c r="H64">
+        <v>24.292000000000002</v>
+      </c>
+      <c r="I64">
+        <v>13.125999999999999</v>
+      </c>
+      <c r="J64">
+        <v>11.648</v>
+      </c>
+      <c r="K64">
+        <v>10.858000000000001</v>
+      </c>
+      <c r="L64">
+        <v>8.6539999999999999</v>
+      </c>
+      <c r="M64">
+        <v>11111114111</v>
+      </c>
+    </row>
+    <row r="65" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A65">
+        <v>20101110</v>
+      </c>
+      <c r="B65">
+        <v>27.402000000000001</v>
+      </c>
+      <c r="C65">
+        <v>27.312000000000001</v>
+      </c>
+      <c r="D65">
+        <v>27.276</v>
+      </c>
+      <c r="E65">
         <v>-9.9990000000000006</v>
       </c>
-      <c r="H39">
-        <v>19.448</v>
-      </c>
-      <c r="I39">
-        <v>15.308</v>
-      </c>
-      <c r="J39">
-        <v>12.31</v>
-      </c>
-      <c r="K39">
-        <v>11.422000000000001</v>
-      </c>
-      <c r="L39">
-        <v>8.4339999999999993</v>
-      </c>
-      <c r="M39">
-        <v>11111011111</v>
-      </c>
-    </row>
-    <row r="40" spans="1:13">
-      <c r="A40">
-        <v>20100712</v>
-      </c>
-      <c r="B40">
-        <v>27.92</v>
-      </c>
-      <c r="C40">
-        <v>27.724</v>
-      </c>
-      <c r="D40">
-        <v>27.558</v>
-      </c>
-      <c r="E40">
-        <v>27.361999999999998</v>
-      </c>
-      <c r="F40">
-        <v>26.754000000000001</v>
-      </c>
-      <c r="G40">
+      <c r="F65">
+        <v>26.545999999999999</v>
+      </c>
+      <c r="G65">
+        <v>24.888000000000002</v>
+      </c>
+      <c r="H65">
+        <v>21.914000000000001</v>
+      </c>
+      <c r="I65">
+        <v>12.718</v>
+      </c>
+      <c r="J65">
+        <v>11.85</v>
+      </c>
+      <c r="K65">
+        <v>10.756</v>
+      </c>
+      <c r="L65">
+        <v>8.2720000000000002</v>
+      </c>
+      <c r="M65">
+        <v>11101114111</v>
+      </c>
+    </row>
+    <row r="66" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A66">
+        <v>20101115</v>
+      </c>
+      <c r="B66">
+        <v>27.577999999999999</v>
+      </c>
+      <c r="C66">
+        <v>27.51</v>
+      </c>
+      <c r="D66">
+        <v>27.51</v>
+      </c>
+      <c r="E66">
         <v>-9.9990000000000006</v>
       </c>
-      <c r="H40">
-        <v>20.422000000000001</v>
-      </c>
-      <c r="I40">
-        <v>15.646000000000001</v>
-      </c>
-      <c r="J40">
-        <v>12.712</v>
-      </c>
-      <c r="K40">
-        <v>11.534000000000001</v>
-      </c>
-      <c r="L40">
-        <v>8.3379999999999992</v>
-      </c>
-      <c r="M40">
-        <v>11111011114</v>
-      </c>
-    </row>
-    <row r="41" spans="1:13">
-      <c r="A41">
-        <v>20100717</v>
-      </c>
-      <c r="B41">
-        <v>28.085999999999999</v>
-      </c>
-      <c r="C41">
-        <v>28</v>
-      </c>
-      <c r="D41">
-        <v>27.67</v>
-      </c>
-      <c r="E41">
-        <v>27.367999999999999</v>
-      </c>
-      <c r="F41">
-        <v>26.661999999999999</v>
-      </c>
-      <c r="G41">
+      <c r="F66">
+        <v>26.213999999999999</v>
+      </c>
+      <c r="G66">
+        <v>24.74</v>
+      </c>
+      <c r="H66">
+        <v>22.17</v>
+      </c>
+      <c r="I66">
+        <v>13.308</v>
+      </c>
+      <c r="J66">
+        <v>11.708</v>
+      </c>
+      <c r="K66">
+        <v>10.42</v>
+      </c>
+      <c r="L66">
+        <v>7.9480000000000004</v>
+      </c>
+      <c r="M66">
+        <v>11101114111</v>
+      </c>
+    </row>
+    <row r="67" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A67">
+        <v>20101120</v>
+      </c>
+      <c r="B67">
+        <v>26.98</v>
+      </c>
+      <c r="C67">
+        <v>26.942</v>
+      </c>
+      <c r="D67">
+        <v>26.937999999999999</v>
+      </c>
+      <c r="E67">
         <v>-9.9990000000000006</v>
       </c>
-      <c r="H41">
-        <v>20.905999999999999</v>
-      </c>
-      <c r="I41">
-        <v>15.78</v>
-      </c>
-      <c r="J41">
-        <v>12.492000000000001</v>
-      </c>
-      <c r="K41">
-        <v>11.464</v>
-      </c>
-      <c r="L41">
-        <v>8.3339999999999996</v>
-      </c>
-      <c r="M41">
-        <v>11111011111</v>
-      </c>
-    </row>
-    <row r="42" spans="1:13">
-      <c r="A42">
-        <v>20100722</v>
-      </c>
-      <c r="B42">
-        <v>27.757999999999999</v>
-      </c>
-      <c r="C42">
-        <v>27.698</v>
-      </c>
-      <c r="D42">
-        <v>27.576000000000001</v>
-      </c>
-      <c r="E42">
-        <v>27.244</v>
-      </c>
-      <c r="F42">
-        <v>25.968</v>
-      </c>
-      <c r="G42">
+      <c r="F67">
+        <v>26.716000000000001</v>
+      </c>
+      <c r="G67">
+        <v>25.282</v>
+      </c>
+      <c r="H67">
+        <v>22.923999999999999</v>
+      </c>
+      <c r="I67">
+        <v>13.206</v>
+      </c>
+      <c r="J67">
+        <v>11.795999999999999</v>
+      </c>
+      <c r="K67">
+        <v>10.432</v>
+      </c>
+      <c r="L67">
+        <v>7.8220000000000001</v>
+      </c>
+      <c r="M67">
+        <v>11101114111</v>
+      </c>
+    </row>
+    <row r="68" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A68">
+        <v>20101125</v>
+      </c>
+      <c r="B68">
+        <v>26.873999999999999</v>
+      </c>
+      <c r="C68">
+        <v>26.812000000000001</v>
+      </c>
+      <c r="D68">
+        <v>26.783999999999999</v>
+      </c>
+      <c r="E68">
         <v>-9.9990000000000006</v>
       </c>
-      <c r="H42">
-        <v>20.876000000000001</v>
-      </c>
-      <c r="I42">
-        <v>14.932</v>
-      </c>
-      <c r="J42">
-        <v>12.598000000000001</v>
-      </c>
-      <c r="K42">
-        <v>11.446</v>
-      </c>
-      <c r="L42">
-        <v>8.2780000000000005</v>
-      </c>
-      <c r="M42">
-        <v>11111011111</v>
-      </c>
-    </row>
-    <row r="43" spans="1:13">
-      <c r="A43">
-        <v>20100727</v>
-      </c>
-      <c r="B43">
-        <v>27.585999999999999</v>
-      </c>
-      <c r="C43">
-        <v>27.544</v>
-      </c>
-      <c r="D43">
-        <v>27.468</v>
-      </c>
-      <c r="E43">
-        <v>27.122</v>
-      </c>
-      <c r="F43">
-        <v>25.408000000000001</v>
-      </c>
-      <c r="G43">
+      <c r="F68">
+        <v>26.736000000000001</v>
+      </c>
+      <c r="G68">
+        <v>25.986000000000001</v>
+      </c>
+      <c r="H68">
+        <v>23.59</v>
+      </c>
+      <c r="I68">
+        <v>12.66</v>
+      </c>
+      <c r="J68">
+        <v>11.298</v>
+      </c>
+      <c r="K68">
+        <v>10.252000000000001</v>
+      </c>
+      <c r="L68">
+        <v>7.8840000000000003</v>
+      </c>
+      <c r="M68">
+        <v>11101114111</v>
+      </c>
+    </row>
+    <row r="69" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A69">
+        <v>20101130</v>
+      </c>
+      <c r="B69">
+        <v>26.481999999999999</v>
+      </c>
+      <c r="C69">
+        <v>26.378</v>
+      </c>
+      <c r="D69">
+        <v>26.352</v>
+      </c>
+      <c r="E69">
         <v>-9.9990000000000006</v>
       </c>
-      <c r="H43">
-        <v>20.03</v>
-      </c>
-      <c r="I43">
-        <v>14.423999999999999</v>
-      </c>
-      <c r="J43">
-        <v>12.94</v>
-      </c>
-      <c r="K43">
-        <v>11.53</v>
-      </c>
-      <c r="L43">
+      <c r="F69">
+        <v>26.271999999999998</v>
+      </c>
+      <c r="G69">
+        <v>26.167999999999999</v>
+      </c>
+      <c r="H69">
+        <v>24.38</v>
+      </c>
+      <c r="I69">
+        <v>12.852</v>
+      </c>
+      <c r="J69">
+        <v>11.128</v>
+      </c>
+      <c r="K69">
+        <v>10.754</v>
+      </c>
+      <c r="L69">
         <v>8.1940000000000008</v>
       </c>
-      <c r="M43">
-        <v>11111011111</v>
-      </c>
-    </row>
-    <row r="44" spans="1:13">
-      <c r="A44">
-        <v>20100801</v>
-      </c>
-      <c r="B44">
-        <v>27.55</v>
-      </c>
-      <c r="C44">
-        <v>27.417999999999999</v>
-      </c>
-      <c r="D44">
-        <v>27.268000000000001</v>
-      </c>
-      <c r="E44">
-        <v>26.902000000000001</v>
-      </c>
-      <c r="F44">
-        <v>24.57</v>
-      </c>
-      <c r="G44">
+      <c r="M69">
+        <v>11101114111</v>
+      </c>
+    </row>
+    <row r="70" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A70">
+        <v>20101205</v>
+      </c>
+      <c r="B70">
+        <v>26.248000000000001</v>
+      </c>
+      <c r="C70">
+        <v>26.187999999999999</v>
+      </c>
+      <c r="D70">
+        <v>26.167999999999999</v>
+      </c>
+      <c r="E70">
         <v>-9.9990000000000006</v>
       </c>
-      <c r="H44">
-        <v>19.899999999999999</v>
-      </c>
-      <c r="I44">
-        <v>14.715999999999999</v>
-      </c>
-      <c r="J44">
-        <v>12.444000000000001</v>
-      </c>
-      <c r="K44">
-        <v>11.36</v>
-      </c>
-      <c r="L44">
-        <v>8.2200000000000006</v>
-      </c>
-      <c r="M44">
-        <v>11111011111</v>
-      </c>
-    </row>
-    <row r="45" spans="1:13">
-      <c r="A45">
-        <v>20100806</v>
-      </c>
-      <c r="B45">
-        <v>27.45</v>
-      </c>
-      <c r="C45">
-        <v>27.373999999999999</v>
-      </c>
-      <c r="D45">
-        <v>27.216000000000001</v>
-      </c>
-      <c r="E45">
-        <v>26.808</v>
-      </c>
-      <c r="F45">
-        <v>24.69</v>
-      </c>
-      <c r="G45">
+      <c r="F70">
+        <v>26.154</v>
+      </c>
+      <c r="G70">
+        <v>26.088000000000001</v>
+      </c>
+      <c r="H70">
+        <v>24.85</v>
+      </c>
+      <c r="I70">
+        <v>13.672000000000001</v>
+      </c>
+      <c r="J70">
+        <v>11.632</v>
+      </c>
+      <c r="K70">
+        <v>10.8</v>
+      </c>
+      <c r="L70">
+        <v>8.4719999999999995</v>
+      </c>
+      <c r="M70">
+        <v>11101114111</v>
+      </c>
+    </row>
+    <row r="71" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A71">
+        <v>20101210</v>
+      </c>
+      <c r="B71">
+        <v>26.577999999999999</v>
+      </c>
+      <c r="C71">
+        <v>26.515999999999998</v>
+      </c>
+      <c r="D71">
+        <v>26.446000000000002</v>
+      </c>
+      <c r="E71">
         <v>-9.9990000000000006</v>
       </c>
-      <c r="H45">
-        <v>19.382000000000001</v>
-      </c>
-      <c r="I45">
-        <v>15.444000000000001</v>
-      </c>
-      <c r="J45">
-        <v>12.298</v>
-      </c>
-      <c r="K45">
-        <v>11.2</v>
-      </c>
-      <c r="L45">
-        <v>8.2799999999999994</v>
-      </c>
-      <c r="M45">
-        <v>11111011111</v>
-      </c>
-    </row>
-    <row r="46" spans="1:13">
-      <c r="A46">
-        <v>20100811</v>
-      </c>
-      <c r="B46">
-        <v>27.161999999999999</v>
-      </c>
-      <c r="C46">
-        <v>27.102</v>
-      </c>
-      <c r="D46">
-        <v>26.937999999999999</v>
-      </c>
-      <c r="E46">
-        <v>26.51</v>
-      </c>
-      <c r="F46">
-        <v>25.166</v>
-      </c>
-      <c r="G46">
+      <c r="F71">
+        <v>26.032</v>
+      </c>
+      <c r="G71">
+        <v>26.036000000000001</v>
+      </c>
+      <c r="H71">
+        <v>25.096</v>
+      </c>
+      <c r="I71">
+        <v>13.71</v>
+      </c>
+      <c r="J71">
+        <v>12.167999999999999</v>
+      </c>
+      <c r="K71">
+        <v>10.848000000000001</v>
+      </c>
+      <c r="L71">
+        <v>8.2479999999999993</v>
+      </c>
+      <c r="M71">
+        <v>11101114111</v>
+      </c>
+    </row>
+    <row r="72" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A72">
+        <v>20101215</v>
+      </c>
+      <c r="B72">
+        <v>26.65</v>
+      </c>
+      <c r="C72">
+        <v>26.611999999999998</v>
+      </c>
+      <c r="D72">
+        <v>26.515999999999998</v>
+      </c>
+      <c r="E72">
         <v>-9.9990000000000006</v>
       </c>
-      <c r="H46">
-        <v>19.036000000000001</v>
-      </c>
-      <c r="I46">
-        <v>14.641999999999999</v>
-      </c>
-      <c r="J46">
-        <v>12.084</v>
-      </c>
-      <c r="K46">
-        <v>11.294</v>
-      </c>
-      <c r="L46">
-        <v>8.4060000000000006</v>
-      </c>
-      <c r="M46">
-        <v>11111011111</v>
-      </c>
-    </row>
-    <row r="47" spans="1:13">
-      <c r="A47">
-        <v>20100816</v>
-      </c>
-      <c r="B47">
-        <v>27.04</v>
-      </c>
-      <c r="C47">
-        <v>26.898</v>
-      </c>
-      <c r="D47">
-        <v>26.724</v>
-      </c>
-      <c r="E47">
-        <v>26.462</v>
-      </c>
-      <c r="F47">
-        <v>25.422000000000001</v>
-      </c>
-      <c r="G47">
+      <c r="F72">
+        <v>25.98</v>
+      </c>
+      <c r="G72">
+        <v>25.942</v>
+      </c>
+      <c r="H72">
+        <v>24.931999999999999</v>
+      </c>
+      <c r="I72">
+        <v>13.714</v>
+      </c>
+      <c r="J72">
+        <v>12.018000000000001</v>
+      </c>
+      <c r="K72">
+        <v>10.646000000000001</v>
+      </c>
+      <c r="L72">
+        <v>8.06</v>
+      </c>
+      <c r="M72">
+        <v>11101114111</v>
+      </c>
+    </row>
+    <row r="73" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A73">
+        <v>20101220</v>
+      </c>
+      <c r="B73">
+        <v>26.218</v>
+      </c>
+      <c r="C73">
+        <v>26.167999999999999</v>
+      </c>
+      <c r="D73">
+        <v>26.138000000000002</v>
+      </c>
+      <c r="E73">
         <v>-9.9990000000000006</v>
       </c>
-      <c r="H47">
-        <v>19.923999999999999</v>
-      </c>
-      <c r="I47">
-        <v>15.183999999999999</v>
-      </c>
-      <c r="J47">
-        <v>12.358000000000001</v>
-      </c>
-      <c r="K47">
-        <v>11.492000000000001</v>
-      </c>
-      <c r="L47">
-        <v>8.43</v>
-      </c>
-      <c r="M47">
-        <v>11111011111</v>
-      </c>
-    </row>
-    <row r="48" spans="1:13">
-      <c r="A48">
-        <v>20100821</v>
-      </c>
-      <c r="B48">
-        <v>26.827999999999999</v>
-      </c>
-      <c r="C48">
-        <v>26.736000000000001</v>
-      </c>
-      <c r="D48">
-        <v>26.643999999999998</v>
-      </c>
-      <c r="E48">
-        <v>26.388000000000002</v>
-      </c>
-      <c r="F48">
-        <v>25.021999999999998</v>
-      </c>
-      <c r="G48">
+      <c r="F73">
+        <v>26.114000000000001</v>
+      </c>
+      <c r="G73">
+        <v>26.097999999999999</v>
+      </c>
+      <c r="H73">
+        <v>24.998000000000001</v>
+      </c>
+      <c r="I73">
+        <v>14.07</v>
+      </c>
+      <c r="J73">
+        <v>11.794</v>
+      </c>
+      <c r="K73">
+        <v>10.628</v>
+      </c>
+      <c r="L73">
+        <v>8.0640000000000001</v>
+      </c>
+      <c r="M73">
+        <v>11101114111</v>
+      </c>
+    </row>
+    <row r="74" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A74">
+        <v>20101225</v>
+      </c>
+      <c r="B74">
+        <v>26.53</v>
+      </c>
+      <c r="C74">
+        <v>26.495999999999999</v>
+      </c>
+      <c r="D74">
+        <v>26.443999999999999</v>
+      </c>
+      <c r="E74">
         <v>-9.9990000000000006</v>
       </c>
-      <c r="H48">
-        <v>19.57</v>
-      </c>
-      <c r="I48">
-        <v>16.321999999999999</v>
-      </c>
-      <c r="J48">
-        <v>12.536</v>
-      </c>
-      <c r="K48">
-        <v>11.6</v>
-      </c>
-      <c r="L48">
-        <v>8.5459999999999994</v>
-      </c>
-      <c r="M48">
-        <v>11111011111</v>
-      </c>
-    </row>
-    <row r="49" spans="1:13">
-      <c r="A49">
-        <v>20100826</v>
-      </c>
-      <c r="B49">
-        <v>26.622</v>
-      </c>
-      <c r="C49">
-        <v>26.582000000000001</v>
-      </c>
-      <c r="D49">
-        <v>26.498000000000001</v>
-      </c>
-      <c r="E49">
-        <v>26.312000000000001</v>
-      </c>
-      <c r="F49">
-        <v>25.596</v>
-      </c>
-      <c r="G49">
+      <c r="F74">
+        <v>26.244</v>
+      </c>
+      <c r="G74">
+        <v>26.18</v>
+      </c>
+      <c r="H74">
+        <v>24.507999999999999</v>
+      </c>
+      <c r="I74">
+        <v>13.504</v>
+      </c>
+      <c r="J74">
+        <v>11.752000000000001</v>
+      </c>
+      <c r="K74">
+        <v>10.896000000000001</v>
+      </c>
+      <c r="L74">
+        <v>8.0920000000000005</v>
+      </c>
+      <c r="M74">
+        <v>11101114111</v>
+      </c>
+    </row>
+    <row r="75" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A75" s="1">
+        <v>20101230</v>
+      </c>
+      <c r="B75" s="1">
+        <v>26.574000000000002</v>
+      </c>
+      <c r="C75" s="1">
+        <v>26.542000000000002</v>
+      </c>
+      <c r="D75" s="1">
+        <v>26.524000000000001</v>
+      </c>
+      <c r="E75" s="1">
         <v>-9.9990000000000006</v>
       </c>
-      <c r="H49">
-        <v>19.667999999999999</v>
-      </c>
-      <c r="I49">
-        <v>16.713999999999999</v>
-      </c>
-      <c r="J49">
-        <v>12.718</v>
-      </c>
-      <c r="K49">
-        <v>11.534000000000001</v>
-      </c>
-      <c r="L49">
-        <v>8.4220000000000006</v>
-      </c>
-      <c r="M49">
-        <v>11111011111</v>
-      </c>
-    </row>
-    <row r="50" spans="1:13">
-      <c r="A50">
-        <v>20100831</v>
-      </c>
-      <c r="B50">
-        <v>26.873999999999999</v>
-      </c>
-      <c r="C50">
-        <v>26.756</v>
-      </c>
-      <c r="D50">
-        <v>26.617999999999999</v>
-      </c>
-      <c r="E50">
-        <v>26.335999999999999</v>
-      </c>
-      <c r="F50">
-        <v>25.684000000000001</v>
-      </c>
-      <c r="G50">
-        <v>-9.9990000000000006</v>
-      </c>
-      <c r="H50">
-        <v>20.309999999999999</v>
-      </c>
-      <c r="I50">
-        <v>16.404</v>
-      </c>
-      <c r="J50">
-        <v>12.948</v>
-      </c>
-      <c r="K50">
-        <v>11.42</v>
-      </c>
-      <c r="L50">
-        <v>8.3979999999999997</v>
-      </c>
-      <c r="M50">
-        <v>11111011111</v>
-      </c>
-    </row>
-    <row r="51" spans="1:13">
-      <c r="A51">
-        <v>20100905</v>
-      </c>
-      <c r="B51">
-        <v>27.1</v>
-      </c>
-      <c r="C51">
-        <v>27.047999999999998</v>
-      </c>
-      <c r="D51">
-        <v>26.914000000000001</v>
-      </c>
-      <c r="E51">
-        <v>26.536000000000001</v>
-      </c>
-      <c r="F51">
-        <v>25.161999999999999</v>
-      </c>
-      <c r="G51">
-        <v>-9.9990000000000006</v>
-      </c>
-      <c r="H51">
-        <v>19.754000000000001</v>
-      </c>
-      <c r="I51">
-        <v>15.933999999999999</v>
-      </c>
-      <c r="J51">
-        <v>12.728</v>
-      </c>
-      <c r="K51">
-        <v>11.38</v>
-      </c>
-      <c r="L51">
-        <v>8.5</v>
-      </c>
-      <c r="M51">
-        <v>11111011111</v>
-      </c>
-    </row>
-    <row r="52" spans="1:13">
-      <c r="A52">
-        <v>20100910</v>
-      </c>
-      <c r="B52">
-        <v>26.768000000000001</v>
-      </c>
-      <c r="C52">
-        <v>26.652000000000001</v>
-      </c>
-      <c r="D52">
-        <v>26.515999999999998</v>
-      </c>
-      <c r="E52">
-        <v>26.27</v>
-      </c>
-      <c r="F52">
-        <v>25.373999999999999</v>
-      </c>
-      <c r="G52">
-        <v>-9.9990000000000006</v>
-      </c>
-      <c r="H52">
-        <v>20.059999999999999</v>
-      </c>
-      <c r="I52">
-        <v>15.827999999999999</v>
-      </c>
-      <c r="J52">
-        <v>12.82</v>
-      </c>
-      <c r="K52">
-        <v>11.374000000000001</v>
-      </c>
-      <c r="L52">
-        <v>8.4540000000000006</v>
-      </c>
-      <c r="M52">
-        <v>11111011111</v>
-      </c>
-    </row>
-    <row r="53" spans="1:13">
-      <c r="A53">
-        <v>20100915</v>
-      </c>
-      <c r="B53">
-        <v>26.538</v>
-      </c>
-      <c r="C53">
-        <v>26.472000000000001</v>
-      </c>
-      <c r="D53">
-        <v>26.405999999999999</v>
-      </c>
-      <c r="E53">
-        <v>26.356000000000002</v>
-      </c>
-      <c r="F53">
-        <v>26.254000000000001</v>
-      </c>
-      <c r="G53">
-        <v>-9.9990000000000006</v>
-      </c>
-      <c r="H53">
-        <v>20.95</v>
-      </c>
-      <c r="I53">
-        <v>16.309999999999999</v>
-      </c>
-      <c r="J53">
-        <v>13.06</v>
-      </c>
-      <c r="K53">
-        <v>11.62</v>
-      </c>
-      <c r="L53">
-        <v>8.4640000000000004</v>
-      </c>
-      <c r="M53">
-        <v>11111011111</v>
-      </c>
-    </row>
-    <row r="54" spans="1:13">
-      <c r="A54">
-        <v>20100920</v>
-      </c>
-      <c r="B54">
-        <v>26.794</v>
-      </c>
-      <c r="C54">
-        <v>26.51</v>
-      </c>
-      <c r="D54">
-        <v>26.108000000000001</v>
-      </c>
-      <c r="E54">
-        <v>25.754000000000001</v>
-      </c>
-      <c r="F54">
-        <v>25.384</v>
-      </c>
-      <c r="G54">
-        <v>-9.9990000000000006</v>
-      </c>
-      <c r="H54">
-        <v>21.14</v>
-      </c>
-      <c r="I54">
-        <v>17.027999999999999</v>
-      </c>
-      <c r="J54">
-        <v>13.56</v>
-      </c>
-      <c r="K54">
-        <v>12</v>
-      </c>
-      <c r="L54">
-        <v>8.7739999999999991</v>
-      </c>
-      <c r="M54">
-        <v>14444044441</v>
-      </c>
-    </row>
-    <row r="55" spans="1:13">
-      <c r="A55">
-        <v>20100925</v>
-      </c>
-      <c r="B55">
-        <v>26.664000000000001</v>
-      </c>
-      <c r="C55">
-        <v>26.515999999999998</v>
-      </c>
-      <c r="D55">
-        <v>26.236000000000001</v>
-      </c>
-      <c r="E55">
-        <v>25.686</v>
-      </c>
-      <c r="F55">
-        <v>24.664000000000001</v>
-      </c>
-      <c r="G55">
-        <v>-9.9990000000000006</v>
-      </c>
-      <c r="H55">
-        <v>21.474</v>
-      </c>
-      <c r="I55">
-        <v>16.510000000000002</v>
-      </c>
-      <c r="J55">
-        <v>13.396000000000001</v>
-      </c>
-      <c r="K55">
-        <v>11.9</v>
-      </c>
-      <c r="L55">
-        <v>8.6660000000000004</v>
-      </c>
-      <c r="M55">
-        <v>11111011111</v>
-      </c>
-    </row>
-    <row r="56" spans="1:13">
-      <c r="A56">
-        <v>20100930</v>
-      </c>
-      <c r="B56">
-        <v>26.866</v>
-      </c>
-      <c r="C56">
-        <v>26.62</v>
-      </c>
-      <c r="D56">
-        <v>26.448</v>
-      </c>
-      <c r="E56">
-        <v>26.178000000000001</v>
-      </c>
-      <c r="F56">
-        <v>25.236000000000001</v>
-      </c>
-      <c r="G56">
-        <v>-9.9990000000000006</v>
-      </c>
-      <c r="H56">
-        <v>21.494</v>
-      </c>
-      <c r="I56">
-        <v>16.414000000000001</v>
-      </c>
-      <c r="J56">
-        <v>13.054</v>
-      </c>
-      <c r="K56">
-        <v>11.72</v>
-      </c>
-      <c r="L56">
-        <v>8.8239999999999998</v>
-      </c>
-      <c r="M56">
-        <v>11111011111</v>
-      </c>
-    </row>
-    <row r="57" spans="1:13">
-      <c r="A57">
-        <v>20101005</v>
-      </c>
-      <c r="B57">
-        <v>27.268000000000001</v>
-      </c>
-      <c r="C57">
-        <v>27.224</v>
-      </c>
-      <c r="D57">
-        <v>27.091999999999999</v>
-      </c>
-      <c r="E57">
-        <v>26.806000000000001</v>
-      </c>
-      <c r="F57">
-        <v>26.353999999999999</v>
-      </c>
-      <c r="G57">
-        <v>-9.9990000000000006</v>
-      </c>
-      <c r="H57">
-        <v>20.27</v>
-      </c>
-      <c r="I57">
-        <v>16.027999999999999</v>
-      </c>
-      <c r="J57">
-        <v>13.098000000000001</v>
-      </c>
-      <c r="K57">
-        <v>12.084</v>
-      </c>
-      <c r="L57">
-        <v>8.6159999999999997</v>
-      </c>
-      <c r="M57">
-        <v>11111011111</v>
-      </c>
-    </row>
-    <row r="58" spans="1:13">
-      <c r="A58">
-        <v>20101010</v>
-      </c>
-      <c r="B58">
-        <v>27.027999999999999</v>
-      </c>
-      <c r="C58">
-        <v>26.962</v>
-      </c>
-      <c r="D58">
-        <v>26.93</v>
-      </c>
-      <c r="E58">
-        <v>26.838000000000001</v>
-      </c>
-      <c r="F58">
-        <v>25.867999999999999</v>
-      </c>
-      <c r="G58">
-        <v>-9.9990000000000006</v>
-      </c>
-      <c r="H58">
-        <v>20.564</v>
-      </c>
-      <c r="I58">
-        <v>16.385999999999999</v>
-      </c>
-      <c r="J58">
-        <v>14.082000000000001</v>
-      </c>
-      <c r="K58">
-        <v>12.273999999999999</v>
-      </c>
-      <c r="L58">
-        <v>8.31</v>
-      </c>
-      <c r="M58">
-        <v>11111011111</v>
-      </c>
-    </row>
-    <row r="59" spans="1:13">
-      <c r="A59">
-        <v>20101015</v>
-      </c>
-      <c r="B59">
-        <v>26.628</v>
-      </c>
-      <c r="C59">
-        <v>26.54</v>
-      </c>
-      <c r="D59">
-        <v>26.452000000000002</v>
-      </c>
-      <c r="E59">
-        <v>26.164000000000001</v>
-      </c>
-      <c r="F59">
-        <v>25.102</v>
-      </c>
-      <c r="G59">
-        <v>-9.9990000000000006</v>
-      </c>
-      <c r="H59">
-        <v>19.893999999999998</v>
-      </c>
-      <c r="I59">
-        <v>16.257999999999999</v>
-      </c>
-      <c r="J59">
-        <v>13.462</v>
-      </c>
-      <c r="K59">
-        <v>12.476000000000001</v>
-      </c>
-      <c r="L59">
-        <v>8.31</v>
-      </c>
-      <c r="M59">
-        <v>11111011111</v>
-      </c>
-    </row>
-    <row r="60" spans="1:13">
-      <c r="A60">
-        <v>20101020</v>
-      </c>
-      <c r="B60">
-        <v>26.527999999999999</v>
-      </c>
-      <c r="C60">
-        <v>26.457999999999998</v>
-      </c>
-      <c r="D60">
-        <v>26.297999999999998</v>
-      </c>
-      <c r="E60">
-        <v>25.488</v>
-      </c>
-      <c r="F60">
-        <v>24.91</v>
-      </c>
-      <c r="G60">
-        <v>-9.9990000000000006</v>
-      </c>
-      <c r="H60">
-        <v>19.655999999999999</v>
-      </c>
-      <c r="I60">
-        <v>15.704000000000001</v>
-      </c>
-      <c r="J60">
-        <v>13.462</v>
-      </c>
-      <c r="K60">
-        <v>12.814</v>
-      </c>
-      <c r="L60">
-        <v>8.3460000000000001</v>
-      </c>
-      <c r="M60">
-        <v>11111011111</v>
-      </c>
-    </row>
-    <row r="61" spans="1:13">
-      <c r="A61">
-        <v>20101025</v>
-      </c>
-      <c r="B61">
-        <v>26.404</v>
-      </c>
-      <c r="C61">
-        <v>26.236000000000001</v>
-      </c>
-      <c r="D61">
-        <v>25.81</v>
-      </c>
-      <c r="E61">
-        <v>25.027999999999999</v>
-      </c>
-      <c r="F61">
-        <v>24.934000000000001</v>
-      </c>
-      <c r="G61">
-        <v>24.63</v>
-      </c>
-      <c r="H61">
-        <v>21.443999999999999</v>
-      </c>
-      <c r="I61">
-        <v>16.693999999999999</v>
-      </c>
-      <c r="J61">
-        <v>14.148</v>
-      </c>
-      <c r="K61">
-        <v>12.762</v>
-      </c>
-      <c r="L61">
-        <v>8.7520000000000007</v>
-      </c>
-      <c r="M61">
-        <v>11111111122</v>
-      </c>
-    </row>
-    <row r="62" spans="1:13">
-      <c r="A62">
-        <v>20101030</v>
-      </c>
-      <c r="B62">
-        <v>26.745999999999999</v>
-      </c>
-      <c r="C62">
-        <v>26.626000000000001</v>
-      </c>
-      <c r="D62">
-        <v>26.481999999999999</v>
-      </c>
-      <c r="E62">
-        <v>26.111999999999998</v>
-      </c>
-      <c r="F62">
-        <v>25.776</v>
-      </c>
-      <c r="G62">
-        <v>25.262</v>
-      </c>
-      <c r="H62">
-        <v>23.507999999999999</v>
-      </c>
-      <c r="I62">
-        <v>17.556000000000001</v>
-      </c>
-      <c r="J62">
-        <v>14.375999999999999</v>
-      </c>
-      <c r="K62">
-        <v>12.593999999999999</v>
-      </c>
-      <c r="L62">
-        <v>8.8339999999999996</v>
-      </c>
-      <c r="M62">
-        <v>11111111122</v>
-      </c>
-    </row>
-    <row r="63" spans="1:13">
-      <c r="A63">
-        <v>20101104</v>
-      </c>
-      <c r="B63">
-        <v>26.62</v>
-      </c>
-      <c r="C63">
-        <v>26.596</v>
-      </c>
-      <c r="D63">
-        <v>26.574000000000002</v>
-      </c>
-      <c r="E63">
-        <v>26.562000000000001</v>
-      </c>
-      <c r="F63">
-        <v>26.527999999999999</v>
-      </c>
-      <c r="G63">
-        <v>25.922000000000001</v>
-      </c>
-      <c r="H63">
-        <v>22.89</v>
-      </c>
-      <c r="I63">
-        <v>16.792000000000002</v>
-      </c>
-      <c r="J63">
-        <v>13.872</v>
-      </c>
-      <c r="K63">
-        <v>12.696</v>
-      </c>
-      <c r="L63">
-        <v>8.7479999999999993</v>
-      </c>
-      <c r="M63">
-        <v>11111111122</v>
-      </c>
-    </row>
-    <row r="64" spans="1:13">
-      <c r="A64">
-        <v>20101109</v>
-      </c>
-      <c r="B64">
-        <v>26.57</v>
-      </c>
-      <c r="C64">
-        <v>26.405999999999999</v>
-      </c>
-      <c r="D64">
-        <v>26.327999999999999</v>
-      </c>
-      <c r="E64">
-        <v>26.2</v>
-      </c>
-      <c r="F64">
-        <v>26.026</v>
-      </c>
-      <c r="G64">
-        <v>25.352</v>
-      </c>
-      <c r="H64">
-        <v>23.24</v>
-      </c>
-      <c r="I64">
-        <v>17.222000000000001</v>
-      </c>
-      <c r="J64">
-        <v>13.906000000000001</v>
-      </c>
-      <c r="K64">
-        <v>12.64</v>
-      </c>
-      <c r="L64">
-        <v>8.6980000000000004</v>
-      </c>
-      <c r="M64">
-        <v>11111111122</v>
-      </c>
-    </row>
-    <row r="65" spans="1:13">
-      <c r="A65">
-        <v>20101114</v>
-      </c>
-      <c r="B65">
-        <v>26.49</v>
-      </c>
-      <c r="C65">
-        <v>26.414000000000001</v>
-      </c>
-      <c r="D65">
-        <v>26.385999999999999</v>
-      </c>
-      <c r="E65">
-        <v>26.356000000000002</v>
-      </c>
-      <c r="F65">
-        <v>26.231999999999999</v>
-      </c>
-      <c r="G65">
-        <v>25.981999999999999</v>
-      </c>
-      <c r="H65">
-        <v>23.731999999999999</v>
-      </c>
-      <c r="I65">
-        <v>16.783999999999999</v>
-      </c>
-      <c r="J65">
-        <v>14.068</v>
-      </c>
-      <c r="K65">
-        <v>12.706</v>
-      </c>
-      <c r="L65">
-        <v>8.9339999999999993</v>
-      </c>
-      <c r="M65">
-        <v>11111111122</v>
-      </c>
-    </row>
-    <row r="66" spans="1:13">
-      <c r="A66">
-        <v>20101119</v>
-      </c>
-      <c r="B66">
-        <v>26.25</v>
-      </c>
-      <c r="C66">
-        <v>26.175999999999998</v>
-      </c>
-      <c r="D66">
-        <v>26.18</v>
-      </c>
-      <c r="E66">
-        <v>26.207999999999998</v>
-      </c>
-      <c r="F66">
-        <v>26.242000000000001</v>
-      </c>
-      <c r="G66">
-        <v>25.847999999999999</v>
-      </c>
-      <c r="H66">
-        <v>24.08</v>
-      </c>
-      <c r="I66">
-        <v>17.707999999999998</v>
-      </c>
-      <c r="J66">
-        <v>14.32</v>
-      </c>
-      <c r="K66">
-        <v>12.606</v>
-      </c>
-      <c r="L66">
-        <v>8.9060000000000006</v>
-      </c>
-      <c r="M66">
-        <v>11111111122</v>
-      </c>
-    </row>
-    <row r="67" spans="1:13">
-      <c r="A67">
-        <v>20101124</v>
-      </c>
-      <c r="B67">
-        <v>26.13</v>
-      </c>
-      <c r="C67">
-        <v>26.068000000000001</v>
-      </c>
-      <c r="D67">
-        <v>26.024000000000001</v>
-      </c>
-      <c r="E67">
-        <v>25.922000000000001</v>
-      </c>
-      <c r="F67">
-        <v>25.553999999999998</v>
-      </c>
-      <c r="G67">
-        <v>24.544</v>
-      </c>
-      <c r="H67">
-        <v>23.562000000000001</v>
-      </c>
-      <c r="I67">
-        <v>17.962</v>
-      </c>
-      <c r="J67">
-        <v>14.507999999999999</v>
-      </c>
-      <c r="K67">
-        <v>12.625999999999999</v>
-      </c>
-      <c r="L67">
-        <v>8.6920000000000002</v>
-      </c>
-      <c r="M67">
-        <v>11111111122</v>
-      </c>
-    </row>
-    <row r="68" spans="1:13">
-      <c r="A68">
-        <v>20101129</v>
-      </c>
-      <c r="B68">
-        <v>26.326000000000001</v>
-      </c>
-      <c r="C68">
-        <v>26.17</v>
-      </c>
-      <c r="D68">
-        <v>25.988</v>
-      </c>
-      <c r="E68">
-        <v>25.582000000000001</v>
-      </c>
-      <c r="F68">
-        <v>25.295999999999999</v>
-      </c>
-      <c r="G68">
-        <v>24.622</v>
-      </c>
-      <c r="H68">
-        <v>24.07</v>
-      </c>
-      <c r="I68">
-        <v>17.888000000000002</v>
-      </c>
-      <c r="J68">
-        <v>14.704000000000001</v>
-      </c>
-      <c r="K68">
-        <v>12.811999999999999</v>
-      </c>
-      <c r="L68">
-        <v>8.6039999999999992</v>
-      </c>
-      <c r="M68">
-        <v>11111111122</v>
-      </c>
-    </row>
-    <row r="69" spans="1:13">
-      <c r="A69">
-        <v>20101204</v>
-      </c>
-      <c r="B69">
-        <v>26.468</v>
-      </c>
-      <c r="C69">
-        <v>26.408000000000001</v>
-      </c>
-      <c r="D69">
-        <v>26.326000000000001</v>
-      </c>
-      <c r="E69">
-        <v>26.032</v>
-      </c>
-      <c r="F69">
-        <v>25.466000000000001</v>
-      </c>
-      <c r="G69">
-        <v>25.155999999999999</v>
-      </c>
-      <c r="H69">
-        <v>24.693999999999999</v>
-      </c>
-      <c r="I69">
-        <v>18.141999999999999</v>
-      </c>
-      <c r="J69">
-        <v>14.43</v>
-      </c>
-      <c r="K69">
-        <v>12.566000000000001</v>
-      </c>
-      <c r="L69">
-        <v>8.7859999999999996</v>
-      </c>
-      <c r="M69">
-        <v>11111111122</v>
-      </c>
-    </row>
-    <row r="70" spans="1:13">
-      <c r="A70">
-        <v>20101209</v>
-      </c>
-      <c r="B70">
-        <v>26.782</v>
-      </c>
-      <c r="C70">
-        <v>26.713999999999999</v>
-      </c>
-      <c r="D70">
-        <v>26.585999999999999</v>
-      </c>
-      <c r="E70">
-        <v>26.306000000000001</v>
-      </c>
-      <c r="F70">
-        <v>25.998000000000001</v>
-      </c>
-      <c r="G70">
-        <v>25.632000000000001</v>
-      </c>
-      <c r="H70">
-        <v>23.968</v>
-      </c>
-      <c r="I70">
-        <v>17.361999999999998</v>
-      </c>
-      <c r="J70">
-        <v>14.352</v>
-      </c>
-      <c r="K70">
-        <v>12.35</v>
-      </c>
-      <c r="L70">
-        <v>8.6359999999999992</v>
-      </c>
-      <c r="M70">
-        <v>11111111122</v>
-      </c>
-    </row>
-    <row r="71" spans="1:13">
-      <c r="A71">
-        <v>20101214</v>
-      </c>
-      <c r="B71">
-        <v>26.736000000000001</v>
-      </c>
-      <c r="C71">
-        <v>26.681999999999999</v>
-      </c>
-      <c r="D71">
-        <v>26.542000000000002</v>
-      </c>
-      <c r="E71">
-        <v>26.294</v>
-      </c>
-      <c r="F71">
-        <v>26.01</v>
-      </c>
-      <c r="G71">
-        <v>25.352</v>
-      </c>
-      <c r="H71">
-        <v>23.786000000000001</v>
-      </c>
-      <c r="I71">
-        <v>16.978000000000002</v>
-      </c>
-      <c r="J71">
-        <v>14.13</v>
-      </c>
-      <c r="K71">
-        <v>12.016</v>
-      </c>
-      <c r="L71">
-        <v>8.4339999999999993</v>
-      </c>
-      <c r="M71">
-        <v>11111111122</v>
-      </c>
-    </row>
-    <row r="72" spans="1:13">
-      <c r="A72">
-        <v>20101219</v>
-      </c>
-      <c r="B72">
-        <v>26.788</v>
-      </c>
-      <c r="C72">
-        <v>26.734000000000002</v>
-      </c>
-      <c r="D72">
-        <v>26.664000000000001</v>
-      </c>
-      <c r="E72">
-        <v>26.518000000000001</v>
-      </c>
-      <c r="F72">
-        <v>26.238</v>
-      </c>
-      <c r="G72">
-        <v>25.486000000000001</v>
-      </c>
-      <c r="H72">
-        <v>23.452000000000002</v>
-      </c>
-      <c r="I72">
-        <v>16.858000000000001</v>
-      </c>
-      <c r="J72">
-        <v>13.906000000000001</v>
-      </c>
-      <c r="K72">
-        <v>11.7</v>
-      </c>
-      <c r="L72">
-        <v>8.42</v>
-      </c>
-      <c r="M72">
-        <v>11111111122</v>
-      </c>
-    </row>
-    <row r="73" spans="1:13">
-      <c r="A73">
-        <v>20101224</v>
-      </c>
-      <c r="B73">
-        <v>26.876000000000001</v>
-      </c>
-      <c r="C73">
-        <v>26.864000000000001</v>
-      </c>
-      <c r="D73">
-        <v>26.832000000000001</v>
-      </c>
-      <c r="E73">
-        <v>26.774000000000001</v>
-      </c>
-      <c r="F73">
-        <v>26.628</v>
-      </c>
-      <c r="G73">
-        <v>26.218</v>
-      </c>
-      <c r="H73">
-        <v>22.388000000000002</v>
-      </c>
-      <c r="I73">
-        <v>16.420000000000002</v>
-      </c>
-      <c r="J73">
-        <v>13.494</v>
-      </c>
-      <c r="K73">
-        <v>11.706</v>
-      </c>
-      <c r="L73">
-        <v>8.5299999999999994</v>
-      </c>
-      <c r="M73">
-        <v>11111111122</v>
-      </c>
-    </row>
-    <row r="74" spans="1:13">
-      <c r="A74">
-        <v>20101229</v>
-      </c>
-      <c r="B74">
-        <v>26.437999999999999</v>
-      </c>
-      <c r="C74">
-        <v>26.423999999999999</v>
-      </c>
-      <c r="D74">
-        <v>26.4</v>
-      </c>
-      <c r="E74">
-        <v>26.335999999999999</v>
-      </c>
-      <c r="F74">
-        <v>26.17</v>
-      </c>
-      <c r="G74">
-        <v>25.7</v>
-      </c>
-      <c r="H74">
-        <v>22.64</v>
-      </c>
-      <c r="I74">
-        <v>17.998000000000001</v>
-      </c>
-      <c r="J74">
-        <v>13.4</v>
-      </c>
-      <c r="K74">
-        <v>11.81</v>
-      </c>
-      <c r="L74">
-        <v>8.5860000000000003</v>
-      </c>
-      <c r="M74">
-        <v>11111111122</v>
-      </c>
-    </row>
-    <row r="75" spans="1:13">
-      <c r="A75" s="1"/>
-      <c r="B75" s="1"/>
-      <c r="C75" s="1"/>
-      <c r="D75" s="1"/>
-      <c r="E75" s="1"/>
-      <c r="F75" s="1"/>
-      <c r="G75" s="1"/>
-      <c r="H75" s="1"/>
-      <c r="I75" s="1"/>
-      <c r="J75" s="1"/>
-      <c r="K75" s="1"/>
-      <c r="L75" s="1"/>
-    </row>
-    <row r="76" spans="1:13">
+      <c r="F75" s="1">
+        <v>26.271999999999998</v>
+      </c>
+      <c r="G75" s="1">
+        <v>25.878</v>
+      </c>
+      <c r="H75" s="1">
+        <v>24.422000000000001</v>
+      </c>
+      <c r="I75" s="1">
+        <v>13.507999999999999</v>
+      </c>
+      <c r="J75" s="1">
+        <v>11.592000000000001</v>
+      </c>
+      <c r="K75" s="1">
+        <v>10.821999999999999</v>
+      </c>
+      <c r="L75" s="1">
+        <v>8.048</v>
+      </c>
+      <c r="M75">
+        <v>11101114111</v>
+      </c>
+    </row>
+    <row r="76" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A76" s="1"/>
       <c r="B76" s="1"/>
       <c r="C76" s="1"/>
@@ -4176,7 +4204,7 @@
       <c r="K76" s="1"/>
       <c r="L76" s="1"/>
     </row>
-    <row r="77" spans="1:13">
+    <row r="77" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A77" s="1"/>
       <c r="B77" s="1"/>
       <c r="C77" s="1"/>
@@ -4190,7 +4218,7 @@
       <c r="K77" s="1"/>
       <c r="L77" s="1"/>
     </row>
-    <row r="78" spans="1:13">
+    <row r="78" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A78" s="1"/>
       <c r="B78" s="1"/>
       <c r="C78" s="1"/>
@@ -4204,7 +4232,7 @@
       <c r="K78" s="1"/>
       <c r="L78" s="1"/>
     </row>
-    <row r="79" spans="1:13">
+    <row r="79" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A79" s="1"/>
       <c r="B79" s="1"/>
       <c r="C79" s="1"/>
@@ -4218,7 +4246,7 @@
       <c r="K79" s="1"/>
       <c r="L79" s="1"/>
     </row>
-    <row r="80" spans="1:13">
+    <row r="80" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A80" s="1"/>
       <c r="B80" s="1"/>
       <c r="C80" s="1"/>
@@ -4232,7 +4260,7 @@
       <c r="K80" s="1"/>
       <c r="L80" s="1"/>
     </row>
-    <row r="81" spans="1:12">
+    <row r="81" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A81" s="1"/>
       <c r="B81" s="1"/>
       <c r="C81" s="1"/>
@@ -4246,7 +4274,7 @@
       <c r="K81" s="1"/>
       <c r="L81" s="1"/>
     </row>
-    <row r="82" spans="1:12">
+    <row r="82" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A82" s="1"/>
       <c r="B82" s="1"/>
       <c r="C82" s="1"/>
@@ -4260,7 +4288,7 @@
       <c r="K82" s="1"/>
       <c r="L82" s="1"/>
     </row>
-    <row r="83" spans="1:12">
+    <row r="83" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A83" s="1"/>
       <c r="B83" s="1"/>
       <c r="C83" s="1"/>
@@ -4274,7 +4302,7 @@
       <c r="K83" s="1"/>
       <c r="L83" s="1"/>
     </row>
-    <row r="84" spans="1:12">
+    <row r="84" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A84" s="1"/>
       <c r="B84" s="1"/>
       <c r="C84" s="1"/>
@@ -4288,7 +4316,7 @@
       <c r="K84" s="1"/>
       <c r="L84" s="1"/>
     </row>
-    <row r="85" spans="1:12">
+    <row r="85" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A85" s="1"/>
       <c r="B85" s="1"/>
       <c r="C85" s="1"/>
@@ -4302,7 +4330,7 @@
       <c r="K85" s="1"/>
       <c r="L85" s="1"/>
     </row>
-    <row r="86" spans="1:12">
+    <row r="86" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A86" s="1"/>
       <c r="B86" s="1"/>
       <c r="C86" s="1"/>
@@ -4316,7 +4344,7 @@
       <c r="K86" s="1"/>
       <c r="L86" s="1"/>
     </row>
-    <row r="87" spans="1:12">
+    <row r="87" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A87" s="1"/>
       <c r="B87" s="1"/>
       <c r="C87" s="1"/>
@@ -4330,7 +4358,7 @@
       <c r="K87" s="1"/>
       <c r="L87" s="1"/>
     </row>
-    <row r="88" spans="1:12">
+    <row r="88" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A88" s="1"/>
       <c r="B88" s="1"/>
       <c r="C88" s="1"/>
@@ -4344,7 +4372,7 @@
       <c r="K88" s="1"/>
       <c r="L88" s="1"/>
     </row>
-    <row r="89" spans="1:12">
+    <row r="89" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A89" s="1"/>
       <c r="B89" s="1"/>
       <c r="C89" s="1"/>
@@ -4358,7 +4386,7 @@
       <c r="K89" s="1"/>
       <c r="L89" s="1"/>
     </row>
-    <row r="90" spans="1:12">
+    <row r="90" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A90" s="1"/>
       <c r="B90" s="1"/>
       <c r="C90" s="1"/>
@@ -4372,7 +4400,7 @@
       <c r="K90" s="1"/>
       <c r="L90" s="1"/>
     </row>
-    <row r="91" spans="1:12">
+    <row r="91" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A91" s="1"/>
       <c r="B91" s="1"/>
       <c r="C91" s="1"/>
@@ -4386,7 +4414,7 @@
       <c r="K91" s="1"/>
       <c r="L91" s="1"/>
     </row>
-    <row r="92" spans="1:12">
+    <row r="92" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A92" s="1"/>
       <c r="B92" s="1"/>
       <c r="C92" s="1"/>
@@ -4400,7 +4428,7 @@
       <c r="K92" s="1"/>
       <c r="L92" s="1"/>
     </row>
-    <row r="93" spans="1:12">
+    <row r="93" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A93" s="1"/>
       <c r="B93" s="1"/>
       <c r="C93" s="1"/>
@@ -4414,7 +4442,7 @@
       <c r="K93" s="1"/>
       <c r="L93" s="1"/>
     </row>
-    <row r="94" spans="1:12">
+    <row r="94" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A94" s="1"/>
       <c r="B94" s="1"/>
       <c r="C94" s="1"/>
@@ -4428,7 +4456,7 @@
       <c r="K94" s="1"/>
       <c r="L94" s="1"/>
     </row>
-    <row r="95" spans="1:12">
+    <row r="95" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A95" s="1"/>
       <c r="B95" s="1"/>
       <c r="C95" s="1"/>
@@ -4442,7 +4470,7 @@
       <c r="K95" s="1"/>
       <c r="L95" s="1"/>
     </row>
-    <row r="96" spans="1:12">
+    <row r="96" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A96" s="1"/>
       <c r="B96" s="1"/>
       <c r="C96" s="1"/>
@@ -4456,7 +4484,7 @@
       <c r="K96" s="1"/>
       <c r="L96" s="1"/>
     </row>
-    <row r="97" spans="1:12">
+    <row r="97" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A97" s="1"/>
       <c r="B97" s="1"/>
       <c r="C97" s="1"/>
@@ -4470,7 +4498,7 @@
       <c r="K97" s="1"/>
       <c r="L97" s="1"/>
     </row>
-    <row r="98" spans="1:12">
+    <row r="98" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A98" s="1"/>
       <c r="B98" s="1"/>
       <c r="C98" s="1"/>
@@ -4484,7 +4512,7 @@
       <c r="K98" s="1"/>
       <c r="L98" s="1"/>
     </row>
-    <row r="99" spans="1:12">
+    <row r="99" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A99" s="1"/>
       <c r="B99" s="1"/>
       <c r="C99" s="1"/>
@@ -4498,7 +4526,7 @@
       <c r="K99" s="1"/>
       <c r="L99" s="1"/>
     </row>
-    <row r="100" spans="1:12">
+    <row r="100" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A100" s="1"/>
       <c r="B100" s="1"/>
       <c r="C100" s="1"/>
@@ -4512,7 +4540,7 @@
       <c r="K100" s="1"/>
       <c r="L100" s="1"/>
     </row>
-    <row r="101" spans="1:12">
+    <row r="101" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A101" s="1"/>
       <c r="B101" s="1"/>
       <c r="C101" s="1"/>
@@ -4526,7 +4554,7 @@
       <c r="K101" s="1"/>
       <c r="L101" s="1"/>
     </row>
-    <row r="102" spans="1:12">
+    <row r="102" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A102" s="1"/>
       <c r="B102" s="1"/>
       <c r="C102" s="1"/>
@@ -4540,7 +4568,7 @@
       <c r="K102" s="1"/>
       <c r="L102" s="1"/>
     </row>
-    <row r="103" spans="1:12">
+    <row r="103" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A103" s="1"/>
       <c r="B103" s="1"/>
       <c r="C103" s="1"/>
@@ -4554,7 +4582,7 @@
       <c r="K103" s="1"/>
       <c r="L103" s="1"/>
     </row>
-    <row r="104" spans="1:12">
+    <row r="104" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A104" s="1"/>
       <c r="B104" s="1"/>
       <c r="C104" s="1"/>
@@ -4568,7 +4596,7 @@
       <c r="K104" s="1"/>
       <c r="L104" s="1"/>
     </row>
-    <row r="105" spans="1:12">
+    <row r="105" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A105" s="1"/>
       <c r="B105" s="1"/>
       <c r="C105" s="1"/>
@@ -4582,7 +4610,7 @@
       <c r="K105" s="1"/>
       <c r="L105" s="1"/>
     </row>
-    <row r="106" spans="1:12">
+    <row r="106" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A106" s="1"/>
       <c r="B106" s="1"/>
       <c r="C106" s="1"/>
@@ -4596,7 +4624,7 @@
       <c r="K106" s="1"/>
       <c r="L106" s="1"/>
     </row>
-    <row r="107" spans="1:12">
+    <row r="107" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A107" s="1"/>
       <c r="B107" s="1"/>
       <c r="C107" s="1"/>
@@ -4610,7 +4638,7 @@
       <c r="K107" s="1"/>
       <c r="L107" s="1"/>
     </row>
-    <row r="108" spans="1:12">
+    <row r="108" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A108" s="1"/>
       <c r="B108" s="1"/>
       <c r="C108" s="1"/>
@@ -4624,7 +4652,7 @@
       <c r="K108" s="1"/>
       <c r="L108" s="1"/>
     </row>
-    <row r="109" spans="1:12">
+    <row r="109" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A109" s="1"/>
       <c r="B109" s="1"/>
       <c r="C109" s="1"/>
@@ -4638,7 +4666,7 @@
       <c r="K109" s="1"/>
       <c r="L109" s="1"/>
     </row>
-    <row r="110" spans="1:12">
+    <row r="110" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A110" s="1"/>
       <c r="B110" s="1"/>
       <c r="C110" s="1"/>
@@ -4652,7 +4680,7 @@
       <c r="K110" s="1"/>
       <c r="L110" s="1"/>
     </row>
-    <row r="111" spans="1:12">
+    <row r="111" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A111" s="1"/>
       <c r="B111" s="1"/>
       <c r="C111" s="1"/>
@@ -4666,7 +4694,7 @@
       <c r="K111" s="1"/>
       <c r="L111" s="1"/>
     </row>
-    <row r="112" spans="1:12">
+    <row r="112" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A112" s="1"/>
       <c r="B112" s="1"/>
       <c r="C112" s="1"/>
@@ -4680,7 +4708,7 @@
       <c r="K112" s="1"/>
       <c r="L112" s="1"/>
     </row>
-    <row r="113" spans="1:12">
+    <row r="113" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A113" s="1"/>
       <c r="B113" s="1"/>
       <c r="C113" s="1"/>
@@ -4694,7 +4722,7 @@
       <c r="K113" s="1"/>
       <c r="L113" s="1"/>
     </row>
-    <row r="114" spans="1:12">
+    <row r="114" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A114" s="1"/>
       <c r="B114" s="1"/>
       <c r="C114" s="1"/>
@@ -4708,7 +4736,7 @@
       <c r="K114" s="1"/>
       <c r="L114" s="1"/>
     </row>
-    <row r="115" spans="1:12">
+    <row r="115" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A115" s="1"/>
       <c r="B115" s="1"/>
       <c r="C115" s="1"/>
@@ -4722,7 +4750,7 @@
       <c r="K115" s="1"/>
       <c r="L115" s="1"/>
     </row>
-    <row r="116" spans="1:12">
+    <row r="116" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A116" s="1"/>
       <c r="B116" s="1"/>
       <c r="C116" s="1"/>
@@ -4736,7 +4764,7 @@
       <c r="K116" s="1"/>
       <c r="L116" s="1"/>
     </row>
-    <row r="117" spans="1:12">
+    <row r="117" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A117" s="1"/>
       <c r="B117" s="1"/>
       <c r="C117" s="1"/>
@@ -4750,7 +4778,7 @@
       <c r="K117" s="1"/>
       <c r="L117" s="1"/>
     </row>
-    <row r="118" spans="1:12">
+    <row r="118" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A118" s="1"/>
       <c r="B118" s="1"/>
       <c r="C118" s="1"/>
@@ -4764,7 +4792,7 @@
       <c r="K118" s="1"/>
       <c r="L118" s="1"/>
     </row>
-    <row r="119" spans="1:12">
+    <row r="119" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A119" s="1"/>
       <c r="B119" s="1"/>
       <c r="C119" s="1"/>
@@ -4778,7 +4806,7 @@
       <c r="K119" s="1"/>
       <c r="L119" s="1"/>
     </row>
-    <row r="120" spans="1:12">
+    <row r="120" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A120" s="1"/>
       <c r="B120" s="1"/>
       <c r="C120" s="1"/>
@@ -4792,7 +4820,7 @@
       <c r="K120" s="1"/>
       <c r="L120" s="1"/>
     </row>
-    <row r="121" spans="1:12">
+    <row r="121" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A121" s="1"/>
       <c r="B121" s="1"/>
       <c r="C121" s="1"/>
@@ -4806,7 +4834,7 @@
       <c r="K121" s="1"/>
       <c r="L121" s="1"/>
     </row>
-    <row r="122" spans="1:12">
+    <row r="122" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A122" s="1"/>
       <c r="B122" s="1"/>
       <c r="C122" s="1"/>
@@ -4985,13 +5013,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{37FF5A24-27CA-4F71-B2C1-DAE9EA10D41D}">
   <dimension ref="A1:G85"/>
   <sheetViews>
-    <sheetView topLeftCell="A79" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1" s="10" t="s">
         <v>1</v>
       </c>
@@ -5005,7 +5033,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:4">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A2" s="12">
         <v>2010</v>
       </c>
@@ -5017,10 +5045,10 @@
       </c>
       <c r="D2" s="11">
         <f>AVERAGE(ScriptPMELLNOAA!B2:B7)</f>
-        <v>29.770666666666671</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
+        <v>30.357000000000003</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A3" s="12">
         <v>2010</v>
       </c>
@@ -5032,10 +5060,10 @@
       </c>
       <c r="D3" s="11">
         <f>AVERAGE(ScriptPMELLNOAA!B8:B13)</f>
-        <v>29.704333333333334</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
+        <v>29.828999999999997</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A4" s="12">
         <v>2010</v>
       </c>
@@ -5047,10 +5075,10 @@
       </c>
       <c r="D4" s="11">
         <f>AVERAGE(ScriptPMELLNOAA!B14:B19)</f>
-        <v>29.522333333333336</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
+        <v>29.565333333333339</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A5" s="12">
         <v>2010</v>
       </c>
@@ -5062,10 +5090,10 @@
       </c>
       <c r="D5" s="11">
         <f>AVERAGE(ScriptPMELLNOAA!B20:B25)</f>
-        <v>29.401</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4">
+        <v>29.597999999999999</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A6" s="12">
         <v>2010</v>
       </c>
@@ -5077,10 +5105,10 @@
       </c>
       <c r="D6" s="11">
         <f>AVERAGE(ScriptPMELLNOAA!B21:B26)</f>
-        <v>29.347333333333335</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
+        <v>29.62</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A7" s="12">
         <v>2010</v>
       </c>
@@ -5092,10 +5120,10 @@
       </c>
       <c r="D7" s="11">
         <f>AVERAGE(ScriptPMELLNOAA!B27:B32)</f>
-        <v>28.588333333333335</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
+        <v>28.985666666666663</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A8" s="12">
         <v>2010</v>
       </c>
@@ -5107,10 +5135,10 @@
       </c>
       <c r="D8" s="11">
         <f>AVERAGE(ScriptPMELLNOAA!B33:B38)</f>
-        <v>28.212666666666667</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
+        <v>28.384333333333334</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A9" s="12">
         <v>2010</v>
       </c>
@@ -5122,10 +5150,10 @@
       </c>
       <c r="D9" s="11">
         <f>AVERAGE(ScriptPMELLNOAA!B44:B50)</f>
-        <v>27.075142857142854</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
+        <v>27.544857142857147</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A10" s="12">
         <v>2010</v>
       </c>
@@ -5137,10 +5165,10 @@
       </c>
       <c r="D10" s="11">
         <f>AVERAGE(ScriptPMELLNOAA!B51:B56)</f>
-        <v>26.788333333333338</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4">
+        <v>26.997333333333334</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A11" s="12">
         <v>2010</v>
       </c>
@@ -5152,10 +5180,10 @@
       </c>
       <c r="D11" s="11">
         <f>AVERAGE(ScriptPMELLNOAA!B57:B62)</f>
-        <v>26.766999999999999</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4">
+        <v>26.486666666666665</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A12" s="12">
         <v>2010</v>
       </c>
@@ -5167,10 +5195,10 @@
       </c>
       <c r="D12" s="11">
         <f>AVERAGE(ScriptPMELLNOAA!B63:B68)</f>
-        <v>26.397666666666666</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4">
+        <v>26.985666666666663</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A13" s="12">
         <v>2010</v>
       </c>
@@ -5182,10 +5210,10 @@
       </c>
       <c r="D13" s="11">
         <f>AVERAGE(ScriptPMELLNOAA!B69:B74)</f>
-        <v>26.681333333333331</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4">
+        <v>26.450999999999997</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A14" s="12">
         <v>2011</v>
       </c>
@@ -5197,7 +5225,7 @@
       </c>
       <c r="D14" s="10"/>
     </row>
-    <row r="15" spans="1:4">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A15" s="12">
         <v>2011</v>
       </c>
@@ -5209,7 +5237,7 @@
       </c>
       <c r="D15" s="10"/>
     </row>
-    <row r="16" spans="1:4">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A16" s="12">
         <v>2011</v>
       </c>
@@ -5221,7 +5249,7 @@
       </c>
       <c r="D16" s="10"/>
     </row>
-    <row r="17" spans="1:4">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A17" s="12">
         <v>2011</v>
       </c>
@@ -5233,7 +5261,7 @@
       </c>
       <c r="D17" s="10"/>
     </row>
-    <row r="18" spans="1:4">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A18" s="12">
         <v>2011</v>
       </c>
@@ -5245,7 +5273,7 @@
       </c>
       <c r="D18" s="10"/>
     </row>
-    <row r="19" spans="1:4">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A19" s="12">
         <v>2011</v>
       </c>
@@ -5257,7 +5285,7 @@
       </c>
       <c r="D19" s="10"/>
     </row>
-    <row r="20" spans="1:4">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A20" s="12">
         <v>2011</v>
       </c>
@@ -5269,7 +5297,7 @@
       </c>
       <c r="D20" s="10"/>
     </row>
-    <row r="21" spans="1:4">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A21" s="12">
         <v>2011</v>
       </c>
@@ -5281,7 +5309,7 @@
       </c>
       <c r="D21" s="10"/>
     </row>
-    <row r="22" spans="1:4">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A22" s="12">
         <v>2011</v>
       </c>
@@ -5293,7 +5321,7 @@
       </c>
       <c r="D22" s="10"/>
     </row>
-    <row r="23" spans="1:4">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A23" s="12">
         <v>2011</v>
       </c>
@@ -5305,7 +5333,7 @@
       </c>
       <c r="D23" s="10"/>
     </row>
-    <row r="24" spans="1:4">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A24" s="12">
         <v>2011</v>
       </c>
@@ -5317,7 +5345,7 @@
       </c>
       <c r="D24" s="10"/>
     </row>
-    <row r="25" spans="1:4">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A25" s="12">
         <v>2011</v>
       </c>
@@ -5329,7 +5357,7 @@
       </c>
       <c r="D25" s="10"/>
     </row>
-    <row r="26" spans="1:4">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A26" s="12">
         <v>2012</v>
       </c>
@@ -5341,7 +5369,7 @@
       </c>
       <c r="D26" s="10"/>
     </row>
-    <row r="27" spans="1:4">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A27" s="12">
         <v>2012</v>
       </c>
@@ -5353,7 +5381,7 @@
       </c>
       <c r="D27" s="10"/>
     </row>
-    <row r="28" spans="1:4">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A28" s="12">
         <v>2012</v>
       </c>
@@ -5365,7 +5393,7 @@
       </c>
       <c r="D28" s="10"/>
     </row>
-    <row r="29" spans="1:4">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A29" s="12">
         <v>2012</v>
       </c>
@@ -5377,7 +5405,7 @@
       </c>
       <c r="D29" s="10"/>
     </row>
-    <row r="30" spans="1:4">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A30" s="12">
         <v>2012</v>
       </c>
@@ -5389,7 +5417,7 @@
       </c>
       <c r="D30" s="10"/>
     </row>
-    <row r="31" spans="1:4">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A31" s="12">
         <v>2012</v>
       </c>
@@ -5401,7 +5429,7 @@
       </c>
       <c r="D31" s="10"/>
     </row>
-    <row r="32" spans="1:4">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A32" s="12">
         <v>2012</v>
       </c>
@@ -5413,7 +5441,7 @@
       </c>
       <c r="D32" s="10"/>
     </row>
-    <row r="33" spans="1:4">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A33" s="12">
         <v>2012</v>
       </c>
@@ -5425,7 +5453,7 @@
       </c>
       <c r="D33" s="10"/>
     </row>
-    <row r="34" spans="1:4">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A34" s="12">
         <v>2012</v>
       </c>
@@ -5437,7 +5465,7 @@
       </c>
       <c r="D34" s="10"/>
     </row>
-    <row r="35" spans="1:4">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A35" s="12">
         <v>2012</v>
       </c>
@@ -5449,7 +5477,7 @@
       </c>
       <c r="D35" s="10"/>
     </row>
-    <row r="36" spans="1:4">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A36" s="12">
         <v>2012</v>
       </c>
@@ -5461,7 +5489,7 @@
       </c>
       <c r="D36" s="10"/>
     </row>
-    <row r="37" spans="1:4">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A37" s="12">
         <v>2012</v>
       </c>
@@ -5473,7 +5501,7 @@
       </c>
       <c r="D37" s="10"/>
     </row>
-    <row r="38" spans="1:4">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A38" s="12">
         <v>2013</v>
       </c>
@@ -5485,7 +5513,7 @@
       </c>
       <c r="D38" s="10"/>
     </row>
-    <row r="39" spans="1:4">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A39" s="12">
         <v>2013</v>
       </c>
@@ -5497,7 +5525,7 @@
       </c>
       <c r="D39" s="10"/>
     </row>
-    <row r="40" spans="1:4">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A40" s="12">
         <v>2013</v>
       </c>
@@ -5509,7 +5537,7 @@
       </c>
       <c r="D40" s="10"/>
     </row>
-    <row r="41" spans="1:4">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A41" s="12">
         <v>2013</v>
       </c>
@@ -5521,7 +5549,7 @@
       </c>
       <c r="D41" s="10"/>
     </row>
-    <row r="42" spans="1:4">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A42" s="12">
         <v>2013</v>
       </c>
@@ -5533,7 +5561,7 @@
       </c>
       <c r="D42" s="10"/>
     </row>
-    <row r="43" spans="1:4">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A43" s="12">
         <v>2013</v>
       </c>
@@ -5545,7 +5573,7 @@
       </c>
       <c r="D43" s="10"/>
     </row>
-    <row r="44" spans="1:4">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A44" s="12">
         <v>2013</v>
       </c>
@@ -5557,7 +5585,7 @@
       </c>
       <c r="D44" s="10"/>
     </row>
-    <row r="45" spans="1:4">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A45" s="12">
         <v>2013</v>
       </c>
@@ -5569,7 +5597,7 @@
       </c>
       <c r="D45" s="10"/>
     </row>
-    <row r="46" spans="1:4">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A46" s="12">
         <v>2013</v>
       </c>
@@ -5581,7 +5609,7 @@
       </c>
       <c r="D46" s="10"/>
     </row>
-    <row r="47" spans="1:4">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A47" s="12">
         <v>2013</v>
       </c>
@@ -5593,7 +5621,7 @@
       </c>
       <c r="D47" s="10"/>
     </row>
-    <row r="48" spans="1:4">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A48" s="12">
         <v>2013</v>
       </c>
@@ -5605,7 +5633,7 @@
       </c>
       <c r="D48" s="10"/>
     </row>
-    <row r="49" spans="1:4">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A49" s="12">
         <v>2013</v>
       </c>
@@ -5617,7 +5645,7 @@
       </c>
       <c r="D49" s="10"/>
     </row>
-    <row r="50" spans="1:4">
+    <row r="50" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A50" s="12">
         <v>2014</v>
       </c>
@@ -5629,7 +5657,7 @@
       </c>
       <c r="D50" s="10"/>
     </row>
-    <row r="51" spans="1:4">
+    <row r="51" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A51" s="12">
         <v>2014</v>
       </c>
@@ -5641,7 +5669,7 @@
       </c>
       <c r="D51" s="10"/>
     </row>
-    <row r="52" spans="1:4">
+    <row r="52" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A52" s="12">
         <v>2014</v>
       </c>
@@ -5653,7 +5681,7 @@
       </c>
       <c r="D52" s="10"/>
     </row>
-    <row r="53" spans="1:4">
+    <row r="53" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A53" s="12">
         <v>2014</v>
       </c>
@@ -5665,7 +5693,7 @@
       </c>
       <c r="D53" s="10"/>
     </row>
-    <row r="54" spans="1:4">
+    <row r="54" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A54" s="12">
         <v>2014</v>
       </c>
@@ -5677,7 +5705,7 @@
       </c>
       <c r="D54" s="10"/>
     </row>
-    <row r="55" spans="1:4">
+    <row r="55" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A55" s="12">
         <v>2014</v>
       </c>
@@ -5689,7 +5717,7 @@
       </c>
       <c r="D55" s="10"/>
     </row>
-    <row r="56" spans="1:4">
+    <row r="56" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A56" s="12">
         <v>2014</v>
       </c>
@@ -5701,7 +5729,7 @@
       </c>
       <c r="D56" s="10"/>
     </row>
-    <row r="57" spans="1:4">
+    <row r="57" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A57" s="12">
         <v>2014</v>
       </c>
@@ -5713,7 +5741,7 @@
       </c>
       <c r="D57" s="10"/>
     </row>
-    <row r="58" spans="1:4">
+    <row r="58" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A58" s="12">
         <v>2014</v>
       </c>
@@ -5725,7 +5753,7 @@
       </c>
       <c r="D58" s="10"/>
     </row>
-    <row r="59" spans="1:4">
+    <row r="59" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A59" s="12">
         <v>2014</v>
       </c>
@@ -5737,7 +5765,7 @@
       </c>
       <c r="D59" s="10"/>
     </row>
-    <row r="60" spans="1:4">
+    <row r="60" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A60" s="12">
         <v>2014</v>
       </c>
@@ -5749,7 +5777,7 @@
       </c>
       <c r="D60" s="10"/>
     </row>
-    <row r="61" spans="1:4">
+    <row r="61" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A61" s="12">
         <v>2014</v>
       </c>
@@ -5761,7 +5789,7 @@
       </c>
       <c r="D61" s="10"/>
     </row>
-    <row r="62" spans="1:4">
+    <row r="62" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A62" s="12">
         <v>2015</v>
       </c>
@@ -5773,7 +5801,7 @@
       </c>
       <c r="D62" s="10"/>
     </row>
-    <row r="63" spans="1:4">
+    <row r="63" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A63" s="12">
         <v>2015</v>
       </c>
@@ -5785,7 +5813,7 @@
       </c>
       <c r="D63" s="10"/>
     </row>
-    <row r="64" spans="1:4">
+    <row r="64" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A64" s="12">
         <v>2015</v>
       </c>
@@ -5797,7 +5825,7 @@
       </c>
       <c r="D64" s="10"/>
     </row>
-    <row r="65" spans="1:7">
+    <row r="65" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A65" s="12">
         <v>2015</v>
       </c>
@@ -5809,7 +5837,7 @@
       </c>
       <c r="D65" s="10"/>
     </row>
-    <row r="66" spans="1:7">
+    <row r="66" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A66" s="12">
         <v>2015</v>
       </c>
@@ -5821,7 +5849,7 @@
       </c>
       <c r="D66" s="10"/>
     </row>
-    <row r="67" spans="1:7">
+    <row r="67" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A67" s="12">
         <v>2015</v>
       </c>
@@ -5833,7 +5861,7 @@
       </c>
       <c r="D67" s="10"/>
     </row>
-    <row r="68" spans="1:7">
+    <row r="68" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A68" s="12">
         <v>2015</v>
       </c>
@@ -5845,7 +5873,7 @@
       </c>
       <c r="D68" s="10"/>
     </row>
-    <row r="69" spans="1:7">
+    <row r="69" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A69" s="12">
         <v>2015</v>
       </c>
@@ -5857,7 +5885,7 @@
       </c>
       <c r="D69" s="10"/>
     </row>
-    <row r="70" spans="1:7">
+    <row r="70" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A70" s="12">
         <v>2015</v>
       </c>
@@ -5869,7 +5897,7 @@
       </c>
       <c r="D70" s="10"/>
     </row>
-    <row r="71" spans="1:7">
+    <row r="71" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A71" s="12">
         <v>2015</v>
       </c>
@@ -5881,7 +5909,7 @@
       </c>
       <c r="D71" s="10"/>
     </row>
-    <row r="72" spans="1:7">
+    <row r="72" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A72" s="12">
         <v>2015</v>
       </c>
@@ -5893,7 +5921,7 @@
       </c>
       <c r="D72" s="10"/>
     </row>
-    <row r="73" spans="1:7">
+    <row r="73" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A73" s="12">
         <v>2015</v>
       </c>
@@ -5905,7 +5933,7 @@
       </c>
       <c r="D73" s="10"/>
     </row>
-    <row r="74" spans="1:7">
+    <row r="74" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A74" s="12">
         <v>2016</v>
       </c>
@@ -5918,7 +5946,7 @@
       <c r="D74" s="10"/>
       <c r="G74" s="16"/>
     </row>
-    <row r="75" spans="1:7">
+    <row r="75" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A75" s="12">
         <v>2016</v>
       </c>
@@ -5930,7 +5958,7 @@
       </c>
       <c r="D75" s="10"/>
     </row>
-    <row r="76" spans="1:7">
+    <row r="76" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A76" s="12">
         <v>2016</v>
       </c>
@@ -5942,7 +5970,7 @@
       </c>
       <c r="D76" s="10"/>
     </row>
-    <row r="77" spans="1:7">
+    <row r="77" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A77" s="12">
         <v>2016</v>
       </c>
@@ -5954,7 +5982,7 @@
       </c>
       <c r="D77" s="10"/>
     </row>
-    <row r="78" spans="1:7">
+    <row r="78" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A78" s="12">
         <v>2016</v>
       </c>
@@ -5966,7 +5994,7 @@
       </c>
       <c r="D78" s="10"/>
     </row>
-    <row r="79" spans="1:7">
+    <row r="79" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A79" s="12">
         <v>2016</v>
       </c>
@@ -5978,7 +6006,7 @@
       </c>
       <c r="D79" s="10"/>
     </row>
-    <row r="80" spans="1:7">
+    <row r="80" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A80" s="12">
         <v>2016</v>
       </c>
@@ -5990,7 +6018,7 @@
       </c>
       <c r="D80" s="10"/>
     </row>
-    <row r="81" spans="1:4">
+    <row r="81" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A81" s="12">
         <v>2016</v>
       </c>
@@ -6002,7 +6030,7 @@
       </c>
       <c r="D81" s="10"/>
     </row>
-    <row r="82" spans="1:4">
+    <row r="82" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A82" s="12">
         <v>2016</v>
       </c>
@@ -6014,7 +6042,7 @@
       </c>
       <c r="D82" s="10"/>
     </row>
-    <row r="83" spans="1:4">
+    <row r="83" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A83" s="12">
         <v>2016</v>
       </c>
@@ -6026,7 +6054,7 @@
       </c>
       <c r="D83" s="10"/>
     </row>
-    <row r="84" spans="1:4">
+    <row r="84" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A84" s="12">
         <v>2016</v>
       </c>
@@ -6038,7 +6066,7 @@
       </c>
       <c r="D84" s="10"/>
     </row>
-    <row r="85" spans="1:4">
+    <row r="85" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A85" s="12">
         <v>2016</v>
       </c>
@@ -6084,13 +6112,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8A080486-673B-49C6-AD71-850ED058F228}">
   <dimension ref="A1:D85"/>
   <sheetViews>
-    <sheetView topLeftCell="A91" workbookViewId="0">
-      <selection activeCell="D25" sqref="D25"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1" s="19" t="s">
         <v>1</v>
       </c>
@@ -6104,7 +6132,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:4">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A2" s="20">
         <v>2010</v>
       </c>
@@ -6116,10 +6144,10 @@
       </c>
       <c r="D2" s="11">
         <f>AVERAGE(ScriptPMELLNOAA!B2:B7)</f>
-        <v>29.770666666666671</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
+        <v>30.357000000000003</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A3" s="20">
         <v>2010</v>
       </c>
@@ -6131,10 +6159,10 @@
       </c>
       <c r="D3" s="11">
         <f>AVERAGE(ScriptPMELLNOAA!B8:B13)</f>
-        <v>29.704333333333334</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
+        <v>29.828999999999997</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A4" s="20">
         <v>2010</v>
       </c>
@@ -6146,10 +6174,10 @@
       </c>
       <c r="D4" s="11">
         <f>AVERAGE(ScriptPMELLNOAA!B14:B19)</f>
-        <v>29.522333333333336</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
+        <v>29.565333333333339</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A5" s="20">
         <v>2010</v>
       </c>
@@ -6161,10 +6189,10 @@
       </c>
       <c r="D5" s="11">
         <f>AVERAGE(ScriptPMELLNOAA!B20:B25)</f>
-        <v>29.401</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4">
+        <v>29.597999999999999</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A6" s="20">
         <v>2010</v>
       </c>
@@ -6176,10 +6204,10 @@
       </c>
       <c r="D6" s="11">
         <f>AVERAGE(ScriptPMELLNOAA!B21:B26)</f>
-        <v>29.347333333333335</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
+        <v>29.62</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A7" s="20">
         <v>2010</v>
       </c>
@@ -6191,10 +6219,10 @@
       </c>
       <c r="D7" s="11">
         <f>AVERAGE(ScriptPMELLNOAA!B27:B32)</f>
-        <v>28.588333333333335</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
+        <v>28.985666666666663</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A8" s="20">
         <v>2010</v>
       </c>
@@ -6206,10 +6234,10 @@
       </c>
       <c r="D8" s="11">
         <f>AVERAGE(ScriptPMELLNOAA!B33:B38)</f>
-        <v>28.212666666666667</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
+        <v>28.384333333333334</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A9" s="20">
         <v>2010</v>
       </c>
@@ -6221,10 +6249,10 @@
       </c>
       <c r="D9" s="11">
         <f>AVERAGE(ScriptPMELLNOAA!B44:B50)</f>
-        <v>27.075142857142854</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
+        <v>27.544857142857147</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A10" s="20">
         <v>2010</v>
       </c>
@@ -6236,10 +6264,10 @@
       </c>
       <c r="D10" s="11">
         <f>AVERAGE(ScriptPMELLNOAA!B51:B56)</f>
-        <v>26.788333333333338</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4">
+        <v>26.997333333333334</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A11" s="20">
         <v>2010</v>
       </c>
@@ -6251,10 +6279,10 @@
       </c>
       <c r="D11" s="11">
         <f>AVERAGE(ScriptPMELLNOAA!B57:B62)</f>
-        <v>26.766999999999999</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4">
+        <v>26.486666666666665</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A12" s="20">
         <v>2010</v>
       </c>
@@ -6266,10 +6294,10 @@
       </c>
       <c r="D12" s="11">
         <f>AVERAGE(ScriptPMELLNOAA!B63:B68)</f>
-        <v>26.397666666666666</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4">
+        <v>26.985666666666663</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A13" s="20">
         <v>2010</v>
       </c>
@@ -6281,10 +6309,10 @@
       </c>
       <c r="D13" s="11">
         <f>AVERAGE(ScriptPMELLNOAA!B69:B74)</f>
-        <v>26.681333333333331</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4">
+        <v>26.450999999999997</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A14" s="20">
         <v>2011</v>
       </c>
@@ -6296,7 +6324,7 @@
       </c>
       <c r="D14" s="19"/>
     </row>
-    <row r="15" spans="1:4">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A15" s="20">
         <v>2011</v>
       </c>
@@ -6308,7 +6336,7 @@
       </c>
       <c r="D15" s="19"/>
     </row>
-    <row r="16" spans="1:4">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A16" s="20">
         <v>2011</v>
       </c>
@@ -6320,7 +6348,7 @@
       </c>
       <c r="D16" s="19"/>
     </row>
-    <row r="17" spans="1:4">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A17" s="20">
         <v>2011</v>
       </c>
@@ -6332,7 +6360,7 @@
       </c>
       <c r="D17" s="19"/>
     </row>
-    <row r="18" spans="1:4">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A18" s="20">
         <v>2011</v>
       </c>
@@ -6344,7 +6372,7 @@
       </c>
       <c r="D18" s="19"/>
     </row>
-    <row r="19" spans="1:4">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A19" s="20">
         <v>2011</v>
       </c>
@@ -6356,7 +6384,7 @@
       </c>
       <c r="D19" s="19"/>
     </row>
-    <row r="20" spans="1:4">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A20" s="20">
         <v>2011</v>
       </c>
@@ -6368,7 +6396,7 @@
       </c>
       <c r="D20" s="19"/>
     </row>
-    <row r="21" spans="1:4">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A21" s="20">
         <v>2011</v>
       </c>
@@ -6380,7 +6408,7 @@
       </c>
       <c r="D21" s="19"/>
     </row>
-    <row r="22" spans="1:4">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A22" s="20">
         <v>2011</v>
       </c>
@@ -6392,7 +6420,7 @@
       </c>
       <c r="D22" s="19"/>
     </row>
-    <row r="23" spans="1:4">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A23" s="20">
         <v>2011</v>
       </c>
@@ -6404,7 +6432,7 @@
       </c>
       <c r="D23" s="19"/>
     </row>
-    <row r="24" spans="1:4">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A24" s="20">
         <v>2011</v>
       </c>
@@ -6416,7 +6444,7 @@
       </c>
       <c r="D24" s="19"/>
     </row>
-    <row r="25" spans="1:4">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A25" s="20">
         <v>2011</v>
       </c>
@@ -6428,7 +6456,7 @@
       </c>
       <c r="D25" s="19"/>
     </row>
-    <row r="26" spans="1:4">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A26" s="20">
         <v>2012</v>
       </c>
@@ -6440,7 +6468,7 @@
       </c>
       <c r="D26" s="19"/>
     </row>
-    <row r="27" spans="1:4">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A27" s="20">
         <v>2012</v>
       </c>
@@ -6452,7 +6480,7 @@
       </c>
       <c r="D27" s="19"/>
     </row>
-    <row r="28" spans="1:4">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A28" s="20">
         <v>2012</v>
       </c>
@@ -6464,7 +6492,7 @@
       </c>
       <c r="D28" s="19"/>
     </row>
-    <row r="29" spans="1:4">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A29" s="20">
         <v>2012</v>
       </c>
@@ -6476,7 +6504,7 @@
       </c>
       <c r="D29" s="19"/>
     </row>
-    <row r="30" spans="1:4">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A30" s="20">
         <v>2012</v>
       </c>
@@ -6488,7 +6516,7 @@
       </c>
       <c r="D30" s="19"/>
     </row>
-    <row r="31" spans="1:4">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A31" s="20">
         <v>2012</v>
       </c>
@@ -6500,7 +6528,7 @@
       </c>
       <c r="D31" s="19"/>
     </row>
-    <row r="32" spans="1:4">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A32" s="20">
         <v>2012</v>
       </c>
@@ -6512,7 +6540,7 @@
       </c>
       <c r="D32" s="19"/>
     </row>
-    <row r="33" spans="1:4">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A33" s="20">
         <v>2012</v>
       </c>
@@ -6524,7 +6552,7 @@
       </c>
       <c r="D33" s="19"/>
     </row>
-    <row r="34" spans="1:4">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A34" s="20">
         <v>2012</v>
       </c>
@@ -6536,7 +6564,7 @@
       </c>
       <c r="D34" s="19"/>
     </row>
-    <row r="35" spans="1:4">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A35" s="20">
         <v>2012</v>
       </c>
@@ -6548,7 +6576,7 @@
       </c>
       <c r="D35" s="19"/>
     </row>
-    <row r="36" spans="1:4">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A36" s="20">
         <v>2012</v>
       </c>
@@ -6560,7 +6588,7 @@
       </c>
       <c r="D36" s="19"/>
     </row>
-    <row r="37" spans="1:4">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A37" s="20">
         <v>2012</v>
       </c>
@@ -6572,7 +6600,7 @@
       </c>
       <c r="D37" s="19"/>
     </row>
-    <row r="38" spans="1:4">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A38" s="20">
         <v>2013</v>
       </c>
@@ -6584,7 +6612,7 @@
       </c>
       <c r="D38" s="19"/>
     </row>
-    <row r="39" spans="1:4">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A39" s="20">
         <v>2013</v>
       </c>
@@ -6596,7 +6624,7 @@
       </c>
       <c r="D39" s="19"/>
     </row>
-    <row r="40" spans="1:4">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A40" s="20">
         <v>2013</v>
       </c>
@@ -6608,7 +6636,7 @@
       </c>
       <c r="D40" s="19"/>
     </row>
-    <row r="41" spans="1:4">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A41" s="20">
         <v>2013</v>
       </c>
@@ -6620,7 +6648,7 @@
       </c>
       <c r="D41" s="19"/>
     </row>
-    <row r="42" spans="1:4">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A42" s="20">
         <v>2013</v>
       </c>
@@ -6632,7 +6660,7 @@
       </c>
       <c r="D42" s="19"/>
     </row>
-    <row r="43" spans="1:4">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A43" s="20">
         <v>2013</v>
       </c>
@@ -6644,7 +6672,7 @@
       </c>
       <c r="D43" s="19"/>
     </row>
-    <row r="44" spans="1:4">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A44" s="20">
         <v>2013</v>
       </c>
@@ -6656,7 +6684,7 @@
       </c>
       <c r="D44" s="19"/>
     </row>
-    <row r="45" spans="1:4">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A45" s="20">
         <v>2013</v>
       </c>
@@ -6668,7 +6696,7 @@
       </c>
       <c r="D45" s="19"/>
     </row>
-    <row r="46" spans="1:4">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A46" s="20">
         <v>2013</v>
       </c>
@@ -6680,7 +6708,7 @@
       </c>
       <c r="D46" s="19"/>
     </row>
-    <row r="47" spans="1:4">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A47" s="20">
         <v>2013</v>
       </c>
@@ -6692,7 +6720,7 @@
       </c>
       <c r="D47" s="19"/>
     </row>
-    <row r="48" spans="1:4">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A48" s="20">
         <v>2013</v>
       </c>
@@ -6704,7 +6732,7 @@
       </c>
       <c r="D48" s="19"/>
     </row>
-    <row r="49" spans="1:4">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A49" s="20">
         <v>2013</v>
       </c>
@@ -6716,7 +6744,7 @@
       </c>
       <c r="D49" s="19"/>
     </row>
-    <row r="50" spans="1:4">
+    <row r="50" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A50" s="20">
         <v>2014</v>
       </c>
@@ -6728,7 +6756,7 @@
       </c>
       <c r="D50" s="19"/>
     </row>
-    <row r="51" spans="1:4">
+    <row r="51" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A51" s="20">
         <v>2014</v>
       </c>
@@ -6740,7 +6768,7 @@
       </c>
       <c r="D51" s="19"/>
     </row>
-    <row r="52" spans="1:4">
+    <row r="52" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A52" s="20">
         <v>2014</v>
       </c>
@@ -6752,7 +6780,7 @@
       </c>
       <c r="D52" s="19"/>
     </row>
-    <row r="53" spans="1:4">
+    <row r="53" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A53" s="20">
         <v>2014</v>
       </c>
@@ -6764,7 +6792,7 @@
       </c>
       <c r="D53" s="19"/>
     </row>
-    <row r="54" spans="1:4">
+    <row r="54" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A54" s="20">
         <v>2014</v>
       </c>
@@ -6776,7 +6804,7 @@
       </c>
       <c r="D54" s="19"/>
     </row>
-    <row r="55" spans="1:4">
+    <row r="55" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A55" s="20">
         <v>2014</v>
       </c>
@@ -6788,7 +6816,7 @@
       </c>
       <c r="D55" s="19"/>
     </row>
-    <row r="56" spans="1:4">
+    <row r="56" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A56" s="20">
         <v>2014</v>
       </c>
@@ -6800,7 +6828,7 @@
       </c>
       <c r="D56" s="19"/>
     </row>
-    <row r="57" spans="1:4">
+    <row r="57" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A57" s="20">
         <v>2014</v>
       </c>
@@ -6812,7 +6840,7 @@
       </c>
       <c r="D57" s="19"/>
     </row>
-    <row r="58" spans="1:4">
+    <row r="58" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A58" s="20">
         <v>2014</v>
       </c>
@@ -6824,7 +6852,7 @@
       </c>
       <c r="D58" s="19"/>
     </row>
-    <row r="59" spans="1:4">
+    <row r="59" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A59" s="20">
         <v>2014</v>
       </c>
@@ -6836,7 +6864,7 @@
       </c>
       <c r="D59" s="19"/>
     </row>
-    <row r="60" spans="1:4">
+    <row r="60" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A60" s="20">
         <v>2014</v>
       </c>
@@ -6848,7 +6876,7 @@
       </c>
       <c r="D60" s="19"/>
     </row>
-    <row r="61" spans="1:4">
+    <row r="61" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A61" s="20">
         <v>2014</v>
       </c>
@@ -6860,7 +6888,7 @@
       </c>
       <c r="D61" s="19"/>
     </row>
-    <row r="62" spans="1:4">
+    <row r="62" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A62" s="20">
         <v>2015</v>
       </c>
@@ -6872,7 +6900,7 @@
       </c>
       <c r="D62" s="19"/>
     </row>
-    <row r="63" spans="1:4">
+    <row r="63" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A63" s="20">
         <v>2015</v>
       </c>
@@ -6884,7 +6912,7 @@
       </c>
       <c r="D63" s="19"/>
     </row>
-    <row r="64" spans="1:4">
+    <row r="64" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A64" s="20">
         <v>2015</v>
       </c>
@@ -6896,7 +6924,7 @@
       </c>
       <c r="D64" s="19"/>
     </row>
-    <row r="65" spans="1:4">
+    <row r="65" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A65" s="20">
         <v>2015</v>
       </c>
@@ -6908,7 +6936,7 @@
       </c>
       <c r="D65" s="19"/>
     </row>
-    <row r="66" spans="1:4">
+    <row r="66" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A66" s="20">
         <v>2015</v>
       </c>
@@ -6920,7 +6948,7 @@
       </c>
       <c r="D66" s="19"/>
     </row>
-    <row r="67" spans="1:4">
+    <row r="67" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A67" s="20">
         <v>2015</v>
       </c>
@@ -6932,7 +6960,7 @@
       </c>
       <c r="D67" s="19"/>
     </row>
-    <row r="68" spans="1:4">
+    <row r="68" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A68" s="20">
         <v>2015</v>
       </c>
@@ -6944,7 +6972,7 @@
       </c>
       <c r="D68" s="19"/>
     </row>
-    <row r="69" spans="1:4">
+    <row r="69" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A69" s="20">
         <v>2015</v>
       </c>
@@ -6956,7 +6984,7 @@
       </c>
       <c r="D69" s="19"/>
     </row>
-    <row r="70" spans="1:4">
+    <row r="70" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A70" s="20">
         <v>2015</v>
       </c>
@@ -6968,7 +6996,7 @@
       </c>
       <c r="D70" s="19"/>
     </row>
-    <row r="71" spans="1:4">
+    <row r="71" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A71" s="20">
         <v>2015</v>
       </c>
@@ -6980,7 +7008,7 @@
       </c>
       <c r="D71" s="19"/>
     </row>
-    <row r="72" spans="1:4">
+    <row r="72" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A72" s="20">
         <v>2015</v>
       </c>
@@ -6992,7 +7020,7 @@
       </c>
       <c r="D72" s="19"/>
     </row>
-    <row r="73" spans="1:4">
+    <row r="73" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A73" s="20">
         <v>2015</v>
       </c>
@@ -7004,7 +7032,7 @@
       </c>
       <c r="D73" s="19"/>
     </row>
-    <row r="74" spans="1:4">
+    <row r="74" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A74" s="20">
         <v>2016</v>
       </c>
@@ -7016,7 +7044,7 @@
       </c>
       <c r="D74" s="19"/>
     </row>
-    <row r="75" spans="1:4">
+    <row r="75" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A75" s="20">
         <v>2016</v>
       </c>
@@ -7028,7 +7056,7 @@
       </c>
       <c r="D75" s="19"/>
     </row>
-    <row r="76" spans="1:4">
+    <row r="76" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A76" s="20">
         <v>2016</v>
       </c>
@@ -7040,7 +7068,7 @@
       </c>
       <c r="D76" s="19"/>
     </row>
-    <row r="77" spans="1:4">
+    <row r="77" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A77" s="20">
         <v>2016</v>
       </c>
@@ -7052,7 +7080,7 @@
       </c>
       <c r="D77" s="19"/>
     </row>
-    <row r="78" spans="1:4">
+    <row r="78" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A78" s="20">
         <v>2016</v>
       </c>
@@ -7064,7 +7092,7 @@
       </c>
       <c r="D78" s="19"/>
     </row>
-    <row r="79" spans="1:4">
+    <row r="79" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A79" s="20">
         <v>2016</v>
       </c>
@@ -7076,7 +7104,7 @@
       </c>
       <c r="D79" s="19"/>
     </row>
-    <row r="80" spans="1:4">
+    <row r="80" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A80" s="20">
         <v>2016</v>
       </c>
@@ -7088,7 +7116,7 @@
       </c>
       <c r="D80" s="19"/>
     </row>
-    <row r="81" spans="1:4">
+    <row r="81" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A81" s="20">
         <v>2016</v>
       </c>
@@ -7100,7 +7128,7 @@
       </c>
       <c r="D81" s="19"/>
     </row>
-    <row r="82" spans="1:4">
+    <row r="82" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A82" s="20">
         <v>2016</v>
       </c>
@@ -7112,7 +7140,7 @@
       </c>
       <c r="D82" s="19"/>
     </row>
-    <row r="83" spans="1:4">
+    <row r="83" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A83" s="20">
         <v>2016</v>
       </c>
@@ -7124,7 +7152,7 @@
       </c>
       <c r="D83" s="19"/>
     </row>
-    <row r="84" spans="1:4">
+    <row r="84" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A84" s="20">
         <v>2016</v>
       </c>
@@ -7136,7 +7164,7 @@
       </c>
       <c r="D84" s="19"/>
     </row>
-    <row r="85" spans="1:4">
+    <row r="85" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A85" s="20">
         <v>2016</v>
       </c>
@@ -7169,13 +7197,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4E656E34-AB87-447B-BB6E-7DD04A55EB82}">
   <dimension ref="A1:D122"/>
   <sheetViews>
-    <sheetView topLeftCell="A112" workbookViewId="0">
+    <sheetView topLeftCell="A79" workbookViewId="0">
       <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1" s="9" t="s">
         <v>1</v>
       </c>
@@ -7189,7 +7217,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:4">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A2" s="9">
         <v>1996</v>
       </c>
@@ -7203,7 +7231,7 @@
         <v>30.51</v>
       </c>
     </row>
-    <row r="3" spans="1:4">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A3" s="9">
         <v>1996</v>
       </c>
@@ -7217,7 +7245,7 @@
         <v>30.42</v>
       </c>
     </row>
-    <row r="4" spans="1:4">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A4" s="9">
         <v>1996</v>
       </c>
@@ -7231,7 +7259,7 @@
         <v>29.95</v>
       </c>
     </row>
-    <row r="5" spans="1:4">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A5" s="9">
         <v>1996</v>
       </c>
@@ -7245,7 +7273,7 @@
         <v>29.43</v>
       </c>
     </row>
-    <row r="6" spans="1:4">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A6" s="9">
         <v>1996</v>
       </c>
@@ -7259,7 +7287,7 @@
         <v>29.64</v>
       </c>
     </row>
-    <row r="7" spans="1:4">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A7" s="9">
         <v>1996</v>
       </c>
@@ -7273,7 +7301,7 @@
         <v>29.88</v>
       </c>
     </row>
-    <row r="8" spans="1:4">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A8" s="9">
         <v>1996</v>
       </c>
@@ -7287,7 +7315,7 @@
         <v>29.51</v>
       </c>
     </row>
-    <row r="9" spans="1:4">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A9" s="9">
         <v>1996</v>
       </c>
@@ -7301,7 +7329,7 @@
         <v>29.76</v>
       </c>
     </row>
-    <row r="10" spans="1:4">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A10" s="9">
         <v>1996</v>
       </c>
@@ -7315,7 +7343,7 @@
         <v>30.06</v>
       </c>
     </row>
-    <row r="11" spans="1:4">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A11" s="9">
         <v>1996</v>
       </c>
@@ -7329,7 +7357,7 @@
         <v>29.73</v>
       </c>
     </row>
-    <row r="12" spans="1:4">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A12" s="9">
         <v>1996</v>
       </c>
@@ -7343,7 +7371,7 @@
         <v>29.73</v>
       </c>
     </row>
-    <row r="13" spans="1:4">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A13" s="9">
         <v>1996</v>
       </c>
@@ -7357,7 +7385,7 @@
         <v>30.01</v>
       </c>
     </row>
-    <row r="14" spans="1:4">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A14" s="9">
         <v>1997</v>
       </c>
@@ -7371,7 +7399,7 @@
         <v>29.59</v>
       </c>
     </row>
-    <row r="15" spans="1:4">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A15" s="9">
         <v>1997</v>
       </c>
@@ -7385,7 +7413,7 @@
         <v>29.71</v>
       </c>
     </row>
-    <row r="16" spans="1:4">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A16" s="9">
         <v>1997</v>
       </c>
@@ -7399,7 +7427,7 @@
         <v>29.5</v>
       </c>
     </row>
-    <row r="17" spans="1:4">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A17" s="9">
         <v>1997</v>
       </c>
@@ -7413,7 +7441,7 @@
         <v>29.53</v>
       </c>
     </row>
-    <row r="18" spans="1:4">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A18" s="9">
         <v>1997</v>
       </c>
@@ -7427,7 +7455,7 @@
         <v>29.45</v>
       </c>
     </row>
-    <row r="19" spans="1:4">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A19" s="9">
         <v>1997</v>
       </c>
@@ -7441,7 +7469,7 @@
         <v>29.21</v>
       </c>
     </row>
-    <row r="20" spans="1:4">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A20" s="9">
         <v>1997</v>
       </c>
@@ -7455,7 +7483,7 @@
         <v>29.16</v>
       </c>
     </row>
-    <row r="21" spans="1:4">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A21" s="9">
         <v>1997</v>
       </c>
@@ -7469,7 +7497,7 @@
         <v>28.67</v>
       </c>
     </row>
-    <row r="22" spans="1:4">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A22" s="9">
         <v>1997</v>
       </c>
@@ -7483,7 +7511,7 @@
         <v>28.78</v>
       </c>
     </row>
-    <row r="23" spans="1:4">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A23" s="9">
         <v>1997</v>
       </c>
@@ -7497,7 +7525,7 @@
         <v>28.67</v>
       </c>
     </row>
-    <row r="24" spans="1:4">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A24" s="9">
         <v>1997</v>
       </c>
@@ -7511,7 +7539,7 @@
         <v>29.3</v>
       </c>
     </row>
-    <row r="25" spans="1:4">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A25" s="9">
         <v>1997</v>
       </c>
@@ -7525,7 +7553,7 @@
         <v>29.85</v>
       </c>
     </row>
-    <row r="26" spans="1:4">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A26" s="9">
         <v>1998</v>
       </c>
@@ -7539,7 +7567,7 @@
         <v>28.95</v>
       </c>
     </row>
-    <row r="27" spans="1:4">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A27" s="9">
         <v>1998</v>
       </c>
@@ -7553,7 +7581,7 @@
         <v>28.37</v>
       </c>
     </row>
-    <row r="28" spans="1:4">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A28" s="9">
         <v>1998</v>
       </c>
@@ -7567,7 +7595,7 @@
         <v>28.5</v>
       </c>
     </row>
-    <row r="29" spans="1:4">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A29" s="9">
         <v>1998</v>
       </c>
@@ -7581,7 +7609,7 @@
         <v>28.35</v>
       </c>
     </row>
-    <row r="30" spans="1:4">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A30" s="9">
         <v>1998</v>
       </c>
@@ -7595,7 +7623,7 @@
         <v>29.17</v>
       </c>
     </row>
-    <row r="31" spans="1:4">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A31" s="9">
         <v>1998</v>
       </c>
@@ -7609,7 +7637,7 @@
         <v>29.16</v>
       </c>
     </row>
-    <row r="32" spans="1:4">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A32" s="9">
         <v>1998</v>
       </c>
@@ -7623,7 +7651,7 @@
         <v>-9.99</v>
       </c>
     </row>
-    <row r="33" spans="1:4">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A33" s="9">
         <v>1998</v>
       </c>
@@ -7637,7 +7665,7 @@
         <v>-9.99</v>
       </c>
     </row>
-    <row r="34" spans="1:4">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A34" s="9">
         <v>1998</v>
       </c>
@@ -7651,7 +7679,7 @@
         <v>29.07</v>
       </c>
     </row>
-    <row r="35" spans="1:4">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A35" s="9">
         <v>1998</v>
       </c>
@@ -7665,7 +7693,7 @@
         <v>29.02</v>
       </c>
     </row>
-    <row r="36" spans="1:4">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A36" s="9">
         <v>1998</v>
       </c>
@@ -7679,7 +7707,7 @@
         <v>29.14</v>
       </c>
     </row>
-    <row r="37" spans="1:4">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A37" s="9">
         <v>1998</v>
       </c>
@@ -7693,7 +7721,7 @@
         <v>29.94</v>
       </c>
     </row>
-    <row r="38" spans="1:4">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A38" s="9">
         <v>1999</v>
       </c>
@@ -7707,7 +7735,7 @@
         <v>29.45</v>
       </c>
     </row>
-    <row r="39" spans="1:4">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A39" s="9">
         <v>1999</v>
       </c>
@@ -7721,7 +7749,7 @@
         <v>28.19</v>
       </c>
     </row>
-    <row r="40" spans="1:4">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A40" s="9">
         <v>1999</v>
       </c>
@@ -7735,7 +7763,7 @@
         <v>28.03</v>
       </c>
     </row>
-    <row r="41" spans="1:4">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A41" s="9">
         <v>1999</v>
       </c>
@@ -7749,7 +7777,7 @@
         <v>28.48</v>
       </c>
     </row>
-    <row r="42" spans="1:4">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A42" s="9">
         <v>1999</v>
       </c>
@@ -7763,7 +7791,7 @@
         <v>28.82</v>
       </c>
     </row>
-    <row r="43" spans="1:4">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A43" s="9">
         <v>1999</v>
       </c>
@@ -7777,7 +7805,7 @@
         <v>29.26</v>
       </c>
     </row>
-    <row r="44" spans="1:4">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A44" s="9">
         <v>1999</v>
       </c>
@@ -7791,7 +7819,7 @@
         <v>29.26</v>
       </c>
     </row>
-    <row r="45" spans="1:4">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A45" s="9">
         <v>1999</v>
       </c>
@@ -7805,7 +7833,7 @@
         <v>29.33</v>
       </c>
     </row>
-    <row r="46" spans="1:4">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A46" s="9">
         <v>1999</v>
       </c>
@@ -7819,7 +7847,7 @@
         <v>25.219989984886499</v>
       </c>
     </row>
-    <row r="47" spans="1:4">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A47" s="9">
         <v>1999</v>
       </c>
@@ -7833,7 +7861,7 @@
         <v>25.206219866150601</v>
       </c>
     </row>
-    <row r="48" spans="1:4">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A48" s="9">
         <v>1999</v>
       </c>
@@ -7847,7 +7875,7 @@
         <v>29.53</v>
       </c>
     </row>
-    <row r="49" spans="1:4">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A49" s="9">
         <v>1999</v>
       </c>
@@ -7861,7 +7889,7 @@
         <v>29.34</v>
       </c>
     </row>
-    <row r="50" spans="1:4">
+    <row r="50" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A50" s="9">
         <v>2000</v>
       </c>
@@ -7875,7 +7903,7 @@
         <v>29.6</v>
       </c>
     </row>
-    <row r="51" spans="1:4">
+    <row r="51" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A51" s="9">
         <v>2000</v>
       </c>
@@ -7889,7 +7917,7 @@
         <v>29.22</v>
       </c>
     </row>
-    <row r="52" spans="1:4">
+    <row r="52" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A52" s="9">
         <v>2000</v>
       </c>
@@ -7903,7 +7931,7 @@
         <v>28.53</v>
       </c>
     </row>
-    <row r="53" spans="1:4">
+    <row r="53" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A53" s="9">
         <v>2000</v>
       </c>
@@ -7917,7 +7945,7 @@
         <v>28.41</v>
       </c>
     </row>
-    <row r="54" spans="1:4">
+    <row r="54" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A54" s="9">
         <v>2000</v>
       </c>
@@ -7931,7 +7959,7 @@
         <v>28.86</v>
       </c>
     </row>
-    <row r="55" spans="1:4">
+    <row r="55" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A55" s="9">
         <v>2000</v>
       </c>
@@ -7945,7 +7973,7 @@
         <v>29.01</v>
       </c>
     </row>
-    <row r="56" spans="1:4">
+    <row r="56" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A56" s="9">
         <v>2000</v>
       </c>
@@ -7959,7 +7987,7 @@
         <v>29.36</v>
       </c>
     </row>
-    <row r="57" spans="1:4">
+    <row r="57" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A57" s="9">
         <v>2000</v>
       </c>
@@ -7973,7 +8001,7 @@
         <v>29.53</v>
       </c>
     </row>
-    <row r="58" spans="1:4">
+    <row r="58" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A58" s="9">
         <v>2000</v>
       </c>
@@ -7987,7 +8015,7 @@
         <v>29.99</v>
       </c>
     </row>
-    <row r="59" spans="1:4">
+    <row r="59" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A59" s="9">
         <v>2000</v>
       </c>
@@ -8001,7 +8029,7 @@
         <v>30.01</v>
       </c>
     </row>
-    <row r="60" spans="1:4">
+    <row r="60" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A60" s="9">
         <v>2000</v>
       </c>
@@ -8015,7 +8043,7 @@
         <v>29.98</v>
       </c>
     </row>
-    <row r="61" spans="1:4">
+    <row r="61" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A61" s="9">
         <v>2000</v>
       </c>
@@ -8029,7 +8057,7 @@
         <v>30.2</v>
       </c>
     </row>
-    <row r="62" spans="1:4">
+    <row r="62" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A62" s="9">
         <v>2001</v>
       </c>
@@ -8043,7 +8071,7 @@
         <v>30.31</v>
       </c>
     </row>
-    <row r="63" spans="1:4">
+    <row r="63" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A63" s="9">
         <v>2001</v>
       </c>
@@ -8057,7 +8085,7 @@
         <v>29.59</v>
       </c>
     </row>
-    <row r="64" spans="1:4">
+    <row r="64" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A64" s="9">
         <v>2001</v>
       </c>
@@ -8071,7 +8099,7 @@
         <v>29.66</v>
       </c>
     </row>
-    <row r="65" spans="1:4">
+    <row r="65" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A65" s="9">
         <v>2001</v>
       </c>
@@ -8085,7 +8113,7 @@
         <v>29.82</v>
       </c>
     </row>
-    <row r="66" spans="1:4">
+    <row r="66" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A66" s="9">
         <v>2001</v>
       </c>
@@ -8099,7 +8127,7 @@
         <v>29.61</v>
       </c>
     </row>
-    <row r="67" spans="1:4">
+    <row r="67" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A67" s="9">
         <v>2001</v>
       </c>
@@ -8113,7 +8141,7 @@
         <v>29.83</v>
       </c>
     </row>
-    <row r="68" spans="1:4">
+    <row r="68" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A68" s="9">
         <v>2001</v>
       </c>
@@ -8127,7 +8155,7 @@
         <v>29.48</v>
       </c>
     </row>
-    <row r="69" spans="1:4">
+    <row r="69" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A69" s="9">
         <v>2001</v>
       </c>
@@ -8141,7 +8169,7 @@
         <v>29.5</v>
       </c>
     </row>
-    <row r="70" spans="1:4">
+    <row r="70" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A70" s="9">
         <v>2001</v>
       </c>
@@ -8155,7 +8183,7 @@
         <v>30.04</v>
       </c>
     </row>
-    <row r="71" spans="1:4">
+    <row r="71" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A71" s="9">
         <v>2001</v>
       </c>
@@ -8169,7 +8197,7 @@
         <v>30.21</v>
       </c>
     </row>
-    <row r="72" spans="1:4">
+    <row r="72" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A72" s="9">
         <v>2001</v>
       </c>
@@ -8183,7 +8211,7 @@
         <v>30.58</v>
       </c>
     </row>
-    <row r="73" spans="1:4">
+    <row r="73" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A73" s="9">
         <v>2001</v>
       </c>
@@ -8197,7 +8225,7 @@
         <v>29.99</v>
       </c>
     </row>
-    <row r="74" spans="1:4">
+    <row r="74" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A74" s="9">
         <v>2002</v>
       </c>
@@ -8211,7 +8239,7 @@
         <v>29.71</v>
       </c>
     </row>
-    <row r="75" spans="1:4">
+    <row r="75" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A75" s="9">
         <v>2002</v>
       </c>
@@ -8225,7 +8253,7 @@
         <v>30.04</v>
       </c>
     </row>
-    <row r="76" spans="1:4">
+    <row r="76" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A76" s="9">
         <v>2002</v>
       </c>
@@ -8239,7 +8267,7 @@
         <v>29.56</v>
       </c>
     </row>
-    <row r="77" spans="1:4">
+    <row r="77" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A77" s="9">
         <v>2002</v>
       </c>
@@ -8253,7 +8281,7 @@
         <v>29.82</v>
       </c>
     </row>
-    <row r="78" spans="1:4">
+    <row r="78" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A78" s="9">
         <v>2002</v>
       </c>
@@ -8267,7 +8295,7 @@
         <v>29.91</v>
       </c>
     </row>
-    <row r="79" spans="1:4">
+    <row r="79" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A79" s="9">
         <v>2002</v>
       </c>
@@ -8281,7 +8309,7 @@
         <v>29.74</v>
       </c>
     </row>
-    <row r="80" spans="1:4">
+    <row r="80" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A80" s="9">
         <v>2002</v>
       </c>
@@ -8295,7 +8323,7 @@
         <v>29.35</v>
       </c>
     </row>
-    <row r="81" spans="1:4">
+    <row r="81" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A81" s="9">
         <v>2002</v>
       </c>
@@ -8309,7 +8337,7 @@
         <v>29.33</v>
       </c>
     </row>
-    <row r="82" spans="1:4">
+    <row r="82" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A82" s="9">
         <v>2002</v>
       </c>
@@ -8323,7 +8351,7 @@
         <v>29.33</v>
       </c>
     </row>
-    <row r="83" spans="1:4">
+    <row r="83" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A83" s="9">
         <v>2002</v>
       </c>
@@ -8337,7 +8365,7 @@
         <v>29.31</v>
       </c>
     </row>
-    <row r="84" spans="1:4">
+    <row r="84" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A84" s="9">
         <v>2002</v>
       </c>
@@ -8351,7 +8379,7 @@
         <v>29.87</v>
       </c>
     </row>
-    <row r="85" spans="1:4">
+    <row r="85" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A85" s="9">
         <v>2002</v>
       </c>
@@ -8365,7 +8393,7 @@
         <v>29.52</v>
       </c>
     </row>
-    <row r="86" spans="1:4">
+    <row r="86" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A86" s="9">
         <v>2003</v>
       </c>
@@ -8379,7 +8407,7 @@
         <v>29.51</v>
       </c>
     </row>
-    <row r="87" spans="1:4">
+    <row r="87" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A87" s="9">
         <v>2003</v>
       </c>
@@ -8393,7 +8421,7 @@
         <v>29.62</v>
       </c>
     </row>
-    <row r="88" spans="1:4">
+    <row r="88" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A88" s="9">
         <v>2003</v>
       </c>
@@ -8407,7 +8435,7 @@
         <v>29.6</v>
       </c>
     </row>
-    <row r="89" spans="1:4">
+    <row r="89" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A89" s="9">
         <v>2003</v>
       </c>
@@ -8421,7 +8449,7 @@
         <v>29.91</v>
       </c>
     </row>
-    <row r="90" spans="1:4">
+    <row r="90" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A90" s="9">
         <v>2003</v>
       </c>
@@ -8435,7 +8463,7 @@
         <v>30.02</v>
       </c>
     </row>
-    <row r="91" spans="1:4">
+    <row r="91" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A91" s="9">
         <v>2003</v>
       </c>
@@ -8449,7 +8477,7 @@
         <v>29.8</v>
       </c>
     </row>
-    <row r="92" spans="1:4">
+    <row r="92" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A92" s="9">
         <v>2003</v>
       </c>
@@ -8463,7 +8491,7 @@
         <v>30.02</v>
       </c>
     </row>
-    <row r="93" spans="1:4">
+    <row r="93" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A93" s="9">
         <v>2003</v>
       </c>
@@ -8477,7 +8505,7 @@
         <v>29.77</v>
       </c>
     </row>
-    <row r="94" spans="1:4">
+    <row r="94" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A94" s="9">
         <v>2003</v>
       </c>
@@ -8491,7 +8519,7 @@
         <v>30.27</v>
       </c>
     </row>
-    <row r="95" spans="1:4">
+    <row r="95" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A95" s="9">
         <v>2003</v>
       </c>
@@ -8505,7 +8533,7 @@
         <v>30.51</v>
       </c>
     </row>
-    <row r="96" spans="1:4">
+    <row r="96" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A96" s="9">
         <v>2003</v>
       </c>
@@ -8519,7 +8547,7 @@
         <v>30.14</v>
       </c>
     </row>
-    <row r="97" spans="1:4">
+    <row r="97" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A97" s="9">
         <v>2003</v>
       </c>
@@ -8533,7 +8561,7 @@
         <v>30.21</v>
       </c>
     </row>
-    <row r="98" spans="1:4">
+    <row r="98" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A98" s="9">
         <v>2004</v>
       </c>
@@ -8547,7 +8575,7 @@
         <v>29.94</v>
       </c>
     </row>
-    <row r="99" spans="1:4">
+    <row r="99" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A99" s="9">
         <v>2004</v>
       </c>
@@ -8561,7 +8589,7 @@
         <v>30.03</v>
       </c>
     </row>
-    <row r="100" spans="1:4">
+    <row r="100" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A100" s="9">
         <v>2004</v>
       </c>
@@ -8575,7 +8603,7 @@
         <v>29.86</v>
       </c>
     </row>
-    <row r="101" spans="1:4">
+    <row r="101" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A101" s="9">
         <v>2004</v>
       </c>
@@ -8589,7 +8617,7 @@
         <v>30.02</v>
       </c>
     </row>
-    <row r="102" spans="1:4">
+    <row r="102" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A102" s="9">
         <v>2004</v>
       </c>
@@ -8603,7 +8631,7 @@
         <v>30.02</v>
       </c>
     </row>
-    <row r="103" spans="1:4">
+    <row r="103" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A103" s="9">
         <v>2004</v>
       </c>
@@ -8617,7 +8645,7 @@
         <v>29.56</v>
       </c>
     </row>
-    <row r="104" spans="1:4">
+    <row r="104" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A104" s="9">
         <v>2004</v>
       </c>
@@ -8631,7 +8659,7 @@
         <v>29.67</v>
       </c>
     </row>
-    <row r="105" spans="1:4">
+    <row r="105" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A105" s="9">
         <v>2004</v>
       </c>
@@ -8645,7 +8673,7 @@
         <v>29.13</v>
       </c>
     </row>
-    <row r="106" spans="1:4">
+    <row r="106" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A106" s="9">
         <v>2004</v>
       </c>
@@ -8659,7 +8687,7 @@
         <v>29.6</v>
       </c>
     </row>
-    <row r="107" spans="1:4">
+    <row r="107" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A107" s="9">
         <v>2004</v>
       </c>
@@ -8673,7 +8701,7 @@
         <v>29.86</v>
       </c>
     </row>
-    <row r="108" spans="1:4">
+    <row r="108" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A108" s="9">
         <v>2004</v>
       </c>
@@ -8687,7 +8715,7 @@
         <v>30.06</v>
       </c>
     </row>
-    <row r="109" spans="1:4">
+    <row r="109" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A109" s="9">
         <v>2004</v>
       </c>
@@ -8701,7 +8729,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="110" spans="1:4">
+    <row r="110" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A110" s="9">
         <v>2005</v>
       </c>
@@ -8715,7 +8743,7 @@
         <v>29.89</v>
       </c>
     </row>
-    <row r="111" spans="1:4">
+    <row r="111" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A111" s="9">
         <v>2005</v>
       </c>
@@ -8729,7 +8757,7 @@
         <v>29.84</v>
       </c>
     </row>
-    <row r="112" spans="1:4">
+    <row r="112" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A112" s="9">
         <v>2005</v>
       </c>
@@ -8743,7 +8771,7 @@
         <v>29.91</v>
       </c>
     </row>
-    <row r="113" spans="1:4">
+    <row r="113" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A113" s="9">
         <v>2005</v>
       </c>
@@ -8757,7 +8785,7 @@
         <v>29.9</v>
       </c>
     </row>
-    <row r="114" spans="1:4">
+    <row r="114" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A114" s="9">
         <v>2005</v>
       </c>
@@ -8771,7 +8799,7 @@
         <v>29.98</v>
       </c>
     </row>
-    <row r="115" spans="1:4">
+    <row r="115" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A115" s="9">
         <v>2005</v>
       </c>
@@ -8785,7 +8813,7 @@
         <v>29.93</v>
       </c>
     </row>
-    <row r="116" spans="1:4">
+    <row r="116" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A116" s="9">
         <v>2005</v>
       </c>
@@ -8799,7 +8827,7 @@
         <v>30.15</v>
       </c>
     </row>
-    <row r="117" spans="1:4">
+    <row r="117" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A117" s="9">
         <v>2005</v>
       </c>
@@ -8813,7 +8841,7 @@
         <v>29.67</v>
       </c>
     </row>
-    <row r="118" spans="1:4">
+    <row r="118" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A118" s="9">
         <v>2005</v>
       </c>
@@ -8827,7 +8855,7 @@
         <v>29.82</v>
       </c>
     </row>
-    <row r="119" spans="1:4">
+    <row r="119" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A119" s="9">
         <v>2005</v>
       </c>
@@ -8841,7 +8869,7 @@
         <v>30.04</v>
       </c>
     </row>
-    <row r="120" spans="1:4">
+    <row r="120" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A120" s="9">
         <v>2005</v>
       </c>
@@ -8855,7 +8883,7 @@
         <v>30.28</v>
       </c>
     </row>
-    <row r="121" spans="1:4">
+    <row r="121" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A121" s="9">
         <v>2005</v>
       </c>
@@ -8869,7 +8897,7 @@
         <v>30.35</v>
       </c>
     </row>
-    <row r="122" spans="1:4">
+    <row r="122" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A122" s="9">
         <v>2006</v>
       </c>
